--- a/Quarterly.xlsx
+++ b/Quarterly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asarantsev\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asarantsev\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2C2132-25A9-4D08-BAFF-15634EAAE59F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306E3BAC-4711-4DC3-ADE0-2A3505F2E776}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,22 +87,22 @@
     <t>Standard &amp; Poor Web site</t>
   </si>
   <si>
-    <t>Quarterly Data 1988Q1-2024Q3</t>
-  </si>
-  <si>
     <t>Non-GAAP</t>
   </si>
   <si>
     <t>GAAP</t>
   </si>
   <si>
-    <t>1988Q1-2024Q2</t>
+    <t>Standard &amp; Poor 500 Index</t>
   </si>
   <si>
-    <t>1988Q1-2024Q3</t>
+    <t>Quarterly Data 1988Q1-2025Q4</t>
   </si>
   <si>
-    <t>Standard &amp; Poor 500 Index</t>
+    <t>1988Q1-2025Q3</t>
+  </si>
+  <si>
+    <t>1988Q1-2025Q4</t>
   </si>
 </sst>
 </file>
@@ -112,10 +112,10 @@
   <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="[$-409]mmm\-yy;@"/>
-    <numFmt numFmtId="168" formatCode="[$-409]dd\-mmm\-yy;@"/>
-    <numFmt numFmtId="169" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$-409]mmm\-yy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="64" x14ac:knownFonts="1">
     <font>
@@ -1071,61 +1071,61 @@
     </border>
   </borders>
   <cellStyleXfs count="613">
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="17" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="24" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="12" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="27" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="24" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="12" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
@@ -1170,103 +1170,214 @@
     <xf numFmtId="0" fontId="6" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="49" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="35" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="36" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="37" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="53" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="54" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="55" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="56" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="57" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="58" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="52" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="61" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="61" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="61" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="61" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="61" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="61" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="61" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="61" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="61" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="61" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="61" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="61" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="5" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="35" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="36" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="37" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="53" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="54" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="55" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="56" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="57" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="58" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="52" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="61" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="61" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="61" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="61" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="61" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="61" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="61" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="5" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="61" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="61" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="5" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="5" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="61" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="61" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="5" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="5" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="61" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="5" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="5" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="5" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="5" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="5" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="5" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="5" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="5" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="35" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="36" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="37" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="53" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="54" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="55" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="56" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="57" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="58" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="52" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="61" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="61" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="61" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="61" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="61" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="61" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="61" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="61" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="61" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="61" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="61" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="61" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="5" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="5" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="5" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="5" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="5" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="5" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="5" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="61" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="61" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="61" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="61" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="61" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="61" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="61" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="61" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="61" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="61" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="61" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="61" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="56" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="58" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="35" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="36" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="37" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="54" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="57" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="53" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="5" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="55" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="52" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="167" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="35" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="36" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="37" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="53" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="54" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="55" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -1274,6 +1385,7 @@
     <xf numFmtId="167" fontId="57" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="58" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="5" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="52" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="61" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1300,164 +1412,82 @@
     <xf numFmtId="167" fontId="5" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="5" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="61" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="5" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="5" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="5" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="5" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="5" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="5" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="5" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="61" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="61" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="61" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="61" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="61" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="61" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="61" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="61" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="61" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="61" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="61" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="61" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="56" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="58" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="35" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="36" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="37" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="54" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="57" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="53" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="5" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="55" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="52" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="35" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="36" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="37" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="53" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="54" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="55" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="56" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="57" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="58" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="5" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="52" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="61" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="61" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="61" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="61" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="61" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="61" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="61" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="5" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="61" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="61" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="5" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="5" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="61" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="61" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="5" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="5" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="61" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="4" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="4" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="4" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="4" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="4" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="4" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="4" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="4" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="4" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="4" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="4" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="4" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="4" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="4" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="4" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="4" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="4" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="167" fontId="4" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1472,36 +1502,6 @@
     <xf numFmtId="167" fontId="4" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="4" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="4" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="4" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="4" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="4" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="4" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="4" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="4" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="4" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="4" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="4" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="4" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="4" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1509,53 +1509,83 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="56" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="1" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="1" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="1" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="1" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="1" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="1" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="1" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="167" fontId="1" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1570,79 +1600,79 @@
     <xf numFmtId="167" fontId="1" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="1" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="1" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="1" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="1" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="1" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="1" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="1" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="1" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="1" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="1" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="1" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="1" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="167" fontId="1" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1657,36 +1687,6 @@
     <xf numFmtId="167" fontId="1" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="1" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="1" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="1" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="1" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="1" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1694,25 +1694,25 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="34">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1724,11 +1724,11 @@
     <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1747,25 +1747,10 @@
     <xf numFmtId="14" fontId="63" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="63" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="63" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="63" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="63" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="63" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="63" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="63" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="63" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1774,7 +1759,7 @@
     <xf numFmtId="14" fontId="63" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="63" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1783,10 +1768,19 @@
     <xf numFmtId="2" fontId="63" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="63" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="63" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="63" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="63" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="63" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="613">
     <cellStyle name="_x000a_bidires=100_x000d_" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2742,18 +2736,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I171"/>
+  <dimension ref="A1:I176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" style="30" customWidth="1"/>
-    <col min="2" max="4" width="28.7109375" style="31" customWidth="1"/>
-    <col min="5" max="5" width="28.7109375" style="32" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" style="25" customWidth="1"/>
+    <col min="2" max="4" width="28.7109375" style="30" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" style="27" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" style="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" style="1" customWidth="1"/>
   </cols>
@@ -2779,292 +2773,287 @@
     </row>
     <row r="2" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21">
-        <v>45565</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23">
-        <v>18.680399999999999</v>
-      </c>
-      <c r="E2" s="24">
-        <v>5762.4848833691203</v>
+        <v>46022</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28">
+        <v>20.25451170990943</v>
+      </c>
+      <c r="E2" s="22">
+        <v>6845.5047061575797</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21">
-        <v>45471</v>
-      </c>
-      <c r="B3" s="22">
-        <v>58.36</v>
-      </c>
-      <c r="C3" s="23">
-        <v>53.12</v>
-      </c>
-      <c r="D3" s="23">
-        <v>18.281505934951767</v>
-      </c>
-      <c r="E3" s="24">
-        <v>5460.4826211495101</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="7"/>
+        <v>45930</v>
+      </c>
+      <c r="B3" s="28">
+        <v>72.03</v>
+      </c>
+      <c r="C3" s="28">
+        <v>63.52</v>
+      </c>
+      <c r="D3" s="28">
+        <v>19.807818650702799</v>
+      </c>
+      <c r="E3" s="22">
+        <v>6688.45903689016</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21">
-        <v>45379</v>
-      </c>
-      <c r="B4" s="22">
-        <v>54.63</v>
-      </c>
-      <c r="C4" s="23">
-        <v>47.37</v>
-      </c>
-      <c r="D4" s="23">
-        <v>18.05984865480896</v>
-      </c>
-      <c r="E4" s="24">
-        <v>5254.3544012623997</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="11"/>
+        <v>45838</v>
+      </c>
+      <c r="B4" s="28">
+        <v>64.010000000000005</v>
+      </c>
+      <c r="C4" s="28">
+        <v>58.96</v>
+      </c>
+      <c r="D4" s="28">
+        <v>19.484934831291397</v>
+      </c>
+      <c r="E4" s="22">
+        <v>6204.9539523896101</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21">
-        <v>45289</v>
-      </c>
-      <c r="B5" s="22">
-        <v>53.9</v>
-      </c>
-      <c r="C5" s="23">
-        <v>47.79</v>
-      </c>
-      <c r="D5" s="23">
-        <v>18.37854501494974</v>
-      </c>
-      <c r="E5" s="24">
-        <v>4769.8294107906704</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
+        <v>45747</v>
+      </c>
+      <c r="B5" s="28">
+        <v>57.51</v>
+      </c>
+      <c r="C5" s="28">
+        <v>53.89</v>
+      </c>
+      <c r="D5" s="28">
+        <v>19.372895060090599</v>
+      </c>
+      <c r="E5" s="22">
+        <v>5611.8526068176197</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
-        <v>45198</v>
-      </c>
-      <c r="B6" s="22">
-        <v>52.25</v>
-      </c>
-      <c r="C6" s="23">
-        <v>47.65</v>
-      </c>
-      <c r="D6" s="23">
-        <v>17.2559</v>
-      </c>
-      <c r="E6" s="24">
-        <v>4288.05412263991</v>
-      </c>
-      <c r="F6" s="9"/>
+        <v>45657</v>
+      </c>
+      <c r="B6" s="28">
+        <v>61.21</v>
+      </c>
+      <c r="C6" s="28">
+        <v>57.69</v>
+      </c>
+      <c r="D6" s="28">
+        <v>19.810500000000001</v>
+      </c>
+      <c r="E6" s="22">
+        <v>5881.6276482140802</v>
+      </c>
+      <c r="F6" s="16"/>
       <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21">
-        <v>45107</v>
-      </c>
-      <c r="B7" s="23">
-        <v>54.84</v>
-      </c>
-      <c r="C7" s="23">
-        <v>48.58</v>
-      </c>
-      <c r="D7" s="23">
-        <v>17.13053206271158</v>
-      </c>
-      <c r="E7" s="24">
-        <v>4450.3813118092003</v>
-      </c>
-      <c r="F7" s="9"/>
+        <v>45565</v>
+      </c>
+      <c r="B7" s="30">
+        <v>59.16</v>
+      </c>
+      <c r="C7" s="28">
+        <v>51.99</v>
+      </c>
+      <c r="D7" s="28">
+        <v>18.680399999999999</v>
+      </c>
+      <c r="E7" s="22">
+        <v>5762.4848833691203</v>
+      </c>
+      <c r="F7" s="16"/>
       <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21">
-        <v>45016</v>
-      </c>
-      <c r="B8" s="23">
-        <v>52.54</v>
-      </c>
-      <c r="C8" s="23">
-        <v>48.41</v>
-      </c>
-      <c r="D8" s="23">
-        <v>17.538714866076422</v>
-      </c>
-      <c r="E8" s="24">
-        <v>4109.3124446214597</v>
+        <v>45471</v>
+      </c>
+      <c r="B8" s="30">
+        <v>58.36</v>
+      </c>
+      <c r="C8" s="28">
+        <v>53.12</v>
+      </c>
+      <c r="D8" s="28">
+        <v>18.281505934951767</v>
+      </c>
+      <c r="E8" s="22">
+        <v>5460.4826211495101</v>
       </c>
       <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21">
-        <v>44926</v>
-      </c>
-      <c r="B9" s="23">
-        <v>50.37</v>
-      </c>
-      <c r="C9" s="23">
-        <v>39.61</v>
-      </c>
-      <c r="D9" s="23">
-        <v>17.387989161834149</v>
-      </c>
-      <c r="E9" s="24">
-        <v>3839.4965866768098</v>
+        <v>45379</v>
+      </c>
+      <c r="B9" s="30">
+        <v>54.63</v>
+      </c>
+      <c r="C9" s="28">
+        <v>47.37</v>
+      </c>
+      <c r="D9" s="28">
+        <v>18.05984865480896</v>
+      </c>
+      <c r="E9" s="22">
+        <v>5254.3544012623997</v>
       </c>
       <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
+      <c r="G9" s="7"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21">
-        <v>44834</v>
-      </c>
-      <c r="B10" s="23">
-        <v>50.35</v>
-      </c>
-      <c r="C10" s="23">
-        <v>44.41</v>
-      </c>
-      <c r="D10" s="23">
-        <v>16.657699999999998</v>
-      </c>
-      <c r="E10" s="24">
-        <v>3585.6241035486701</v>
+        <v>45289</v>
+      </c>
+      <c r="B10" s="30">
+        <v>53.9</v>
+      </c>
+      <c r="C10" s="28">
+        <v>47.79</v>
+      </c>
+      <c r="D10" s="28">
+        <v>18.37854501494974</v>
+      </c>
+      <c r="E10" s="22">
+        <v>4769.8294107906704</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="12"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21">
-        <v>44742</v>
-      </c>
-      <c r="B11" s="23">
-        <v>46.87</v>
-      </c>
-      <c r="C11" s="23">
-        <v>42.74</v>
-      </c>
-      <c r="D11" s="23">
-        <v>16.627038249907311</v>
-      </c>
-      <c r="E11" s="24">
-        <v>3785.3848459311298</v>
+        <v>45198</v>
+      </c>
+      <c r="B11" s="30">
+        <v>52.25</v>
+      </c>
+      <c r="C11" s="28">
+        <v>47.65</v>
+      </c>
+      <c r="D11" s="28">
+        <v>17.2559</v>
+      </c>
+      <c r="E11" s="22">
+        <v>4288.05412263991</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="10"/>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21">
-        <v>44651</v>
-      </c>
-      <c r="B12" s="23">
-        <v>49.36</v>
-      </c>
-      <c r="C12" s="23">
-        <v>45.99</v>
-      </c>
-      <c r="D12" s="23">
-        <v>16.25010093695899</v>
-      </c>
-      <c r="E12" s="24">
-        <v>4530.4134516834702</v>
+        <v>45107</v>
+      </c>
+      <c r="B12" s="28">
+        <v>54.84</v>
+      </c>
+      <c r="C12" s="28">
+        <v>48.58</v>
+      </c>
+      <c r="D12" s="28">
+        <v>17.13053206271158</v>
+      </c>
+      <c r="E12" s="22">
+        <v>4450.3813118092003</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="12"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21">
-        <v>44561</v>
-      </c>
-      <c r="B13" s="23">
-        <v>56.73</v>
-      </c>
-      <c r="C13" s="23">
-        <v>53.94</v>
-      </c>
-      <c r="D13" s="23">
-        <v>15.783466156640799</v>
-      </c>
-      <c r="E13" s="24">
-        <v>4766.1829724282998</v>
+        <v>45016</v>
+      </c>
+      <c r="B13" s="28">
+        <v>52.54</v>
+      </c>
+      <c r="C13" s="28">
+        <v>48.41</v>
+      </c>
+      <c r="D13" s="28">
+        <v>17.538714866076422</v>
+      </c>
+      <c r="E13" s="22">
+        <v>4109.3124446214597</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="10"/>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21">
-        <v>44469</v>
-      </c>
-      <c r="B14" s="23">
-        <v>52.02</v>
-      </c>
-      <c r="C14" s="23">
-        <v>49.59</v>
-      </c>
-      <c r="D14" s="23">
-        <v>15.359</v>
-      </c>
-      <c r="E14" s="24">
-        <v>4307.5387507897103</v>
+        <v>44926</v>
+      </c>
+      <c r="B14" s="28">
+        <v>50.37</v>
+      </c>
+      <c r="C14" s="28">
+        <v>39.61</v>
+      </c>
+      <c r="D14" s="28">
+        <v>17.387989161834149</v>
+      </c>
+      <c r="E14" s="22">
+        <v>3839.4965866768098</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="10"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21">
-        <v>44377</v>
-      </c>
-      <c r="B15" s="23">
-        <v>52.05</v>
-      </c>
-      <c r="C15" s="23">
-        <v>48.39</v>
-      </c>
-      <c r="D15" s="23">
-        <v>14.577407230474947</v>
-      </c>
-      <c r="E15" s="24">
-        <v>4297.4966318818697</v>
+        <v>44834</v>
+      </c>
+      <c r="B15" s="28">
+        <v>50.35</v>
+      </c>
+      <c r="C15" s="28">
+        <v>44.41</v>
+      </c>
+      <c r="D15" s="28">
+        <v>16.657699999999998</v>
+      </c>
+      <c r="E15" s="22">
+        <v>3585.6241035486701</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21">
-        <v>44286</v>
-      </c>
-      <c r="B16" s="23">
-        <v>47.41</v>
-      </c>
-      <c r="C16" s="23">
-        <v>45.95</v>
-      </c>
-      <c r="D16" s="23">
-        <v>14.67724389527684</v>
-      </c>
-      <c r="E16" s="24">
-        <v>3972.8922084302499</v>
+        <v>44742</v>
+      </c>
+      <c r="B16" s="28">
+        <v>46.87</v>
+      </c>
+      <c r="C16" s="28">
+        <v>42.74</v>
+      </c>
+      <c r="D16" s="28">
+        <v>16.627038249907311</v>
+      </c>
+      <c r="E16" s="22">
+        <v>3785.3848459311298</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="10"/>
@@ -3072,2615 +3061,2715 @@
     </row>
     <row r="17" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21">
-        <v>44196</v>
-      </c>
-      <c r="B17" s="23">
-        <v>38.18</v>
-      </c>
-      <c r="C17" s="23">
-        <v>31.44</v>
-      </c>
-      <c r="D17" s="23">
-        <v>14.640831622792422</v>
-      </c>
-      <c r="E17" s="24">
-        <v>3756.0714689572001</v>
+        <v>44651</v>
+      </c>
+      <c r="B17" s="28">
+        <v>49.36</v>
+      </c>
+      <c r="C17" s="28">
+        <v>45.99</v>
+      </c>
+      <c r="D17" s="28">
+        <v>16.25010093695899</v>
+      </c>
+      <c r="E17" s="22">
+        <v>4530.4134516834702</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="10"/>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21">
-        <v>44104</v>
-      </c>
-      <c r="B18" s="23">
-        <v>37.9</v>
-      </c>
-      <c r="C18" s="22">
-        <v>32.979999999999997</v>
-      </c>
-      <c r="D18" s="23">
-        <v>13.969559385871939</v>
-      </c>
-      <c r="E18" s="24">
-        <v>3362.9989876496502</v>
+        <v>44561</v>
+      </c>
+      <c r="B18" s="28">
+        <v>56.73</v>
+      </c>
+      <c r="C18" s="28">
+        <v>53.94</v>
+      </c>
+      <c r="D18" s="28">
+        <v>15.783466156640799</v>
+      </c>
+      <c r="E18" s="22">
+        <v>4766.1829724282998</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21">
-        <v>44012</v>
-      </c>
-      <c r="B19" s="23">
-        <v>26.79</v>
-      </c>
-      <c r="C19" s="22">
-        <v>17.829999999999998</v>
-      </c>
-      <c r="D19" s="23">
-        <v>14.345752160961448</v>
-      </c>
-      <c r="E19" s="24">
-        <v>3100.2851286595301</v>
+        <v>44469</v>
+      </c>
+      <c r="B19" s="28">
+        <v>52.02</v>
+      </c>
+      <c r="C19" s="28">
+        <v>49.59</v>
+      </c>
+      <c r="D19" s="28">
+        <v>15.359</v>
+      </c>
+      <c r="E19" s="22">
+        <v>4307.5387507897103</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="10"/>
-      <c r="H19" s="11"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21">
-        <v>43921</v>
-      </c>
-      <c r="B20" s="23">
-        <v>19.5</v>
-      </c>
-      <c r="C20" s="22">
-        <v>11.88</v>
-      </c>
-      <c r="D20" s="23">
-        <v>15.322702966384359</v>
-      </c>
-      <c r="E20" s="24">
-        <v>2584.5907599343</v>
+        <v>44377</v>
+      </c>
+      <c r="B20" s="28">
+        <v>52.05</v>
+      </c>
+      <c r="C20" s="28">
+        <v>48.39</v>
+      </c>
+      <c r="D20" s="28">
+        <v>14.577407230474947</v>
+      </c>
+      <c r="E20" s="22">
+        <v>4297.4966318818697</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="10"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21">
-        <v>43830</v>
-      </c>
-      <c r="B21" s="23">
-        <v>39.18</v>
-      </c>
-      <c r="C21" s="22">
-        <v>35.53</v>
-      </c>
-      <c r="D21" s="23">
-        <v>15.213222200892581</v>
-      </c>
-      <c r="E21" s="24">
-        <v>3230.7819500904302</v>
+        <v>44286</v>
+      </c>
+      <c r="B21" s="28">
+        <v>47.41</v>
+      </c>
+      <c r="C21" s="28">
+        <v>45.95</v>
+      </c>
+      <c r="D21" s="28">
+        <v>14.67724389527684</v>
+      </c>
+      <c r="E21" s="22">
+        <v>3972.8922084302499</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="10"/>
-    </row>
-    <row r="22" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="21">
-        <v>43738</v>
-      </c>
-      <c r="B22" s="23">
-        <v>39.81</v>
-      </c>
-      <c r="C22" s="22">
-        <v>33.99</v>
-      </c>
-      <c r="D22" s="23">
-        <v>14.801734274295193</v>
-      </c>
-      <c r="E22" s="24">
-        <v>2976.73727174433</v>
+        <v>44196</v>
+      </c>
+      <c r="B22" s="28">
+        <v>38.18</v>
+      </c>
+      <c r="C22" s="28">
+        <v>31.44</v>
+      </c>
+      <c r="D22" s="28">
+        <v>14.640831622792422</v>
+      </c>
+      <c r="E22" s="22">
+        <v>3756.0714689572001</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="10"/>
-    </row>
-    <row r="23" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="21">
-        <v>43644</v>
-      </c>
-      <c r="B23" s="23">
-        <v>40.14</v>
-      </c>
-      <c r="C23" s="22">
-        <v>34.93</v>
-      </c>
-      <c r="D23" s="23">
-        <v>14.242944144807993</v>
-      </c>
-      <c r="E23" s="24">
-        <v>2941.76</v>
+        <v>44104</v>
+      </c>
+      <c r="B23" s="28">
+        <v>37.9</v>
+      </c>
+      <c r="C23" s="30">
+        <v>32.979999999999997</v>
+      </c>
+      <c r="D23" s="28">
+        <v>13.969559385871939</v>
+      </c>
+      <c r="E23" s="22">
+        <v>3362.9989876496502</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="10"/>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21">
-        <v>43553</v>
-      </c>
-      <c r="B24" s="23">
-        <v>37.99</v>
-      </c>
-      <c r="C24" s="22">
-        <v>35.020000000000003</v>
-      </c>
-      <c r="D24" s="23">
-        <v>13.982721935746159</v>
-      </c>
-      <c r="E24" s="24">
-        <v>2834.4</v>
+        <v>44012</v>
+      </c>
+      <c r="B24" s="28">
+        <v>26.79</v>
+      </c>
+      <c r="C24" s="30">
+        <v>17.829999999999998</v>
+      </c>
+      <c r="D24" s="28">
+        <v>14.345752160961448</v>
+      </c>
+      <c r="E24" s="22">
+        <v>3100.2851286595301</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21">
-        <v>43465</v>
-      </c>
-      <c r="B25" s="23">
-        <v>35.03</v>
-      </c>
-      <c r="C25" s="23">
-        <v>28.96</v>
-      </c>
-      <c r="D25" s="23">
-        <v>14.192106539138369</v>
-      </c>
-      <c r="E25" s="24">
-        <v>2506.8471826272198</v>
+        <v>43921</v>
+      </c>
+      <c r="B25" s="28">
+        <v>19.5</v>
+      </c>
+      <c r="C25" s="30">
+        <v>11.88</v>
+      </c>
+      <c r="D25" s="28">
+        <v>15.322702966384359</v>
+      </c>
+      <c r="E25" s="22">
+        <v>2584.5907599343</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21">
-        <v>43371</v>
-      </c>
-      <c r="B26" s="23">
-        <v>41.38</v>
-      </c>
-      <c r="C26" s="23">
-        <v>36.36</v>
-      </c>
-      <c r="D26" s="23">
-        <v>13.6595021220856</v>
-      </c>
-      <c r="E26" s="24">
-        <v>2913.97813988603</v>
+        <v>43830</v>
+      </c>
+      <c r="B26" s="28">
+        <v>39.18</v>
+      </c>
+      <c r="C26" s="30">
+        <v>35.53</v>
+      </c>
+      <c r="D26" s="28">
+        <v>15.213222200892581</v>
+      </c>
+      <c r="E26" s="22">
+        <v>3230.7819500904302</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="21">
-        <v>43280</v>
-      </c>
-      <c r="B27" s="23">
-        <v>38.65</v>
-      </c>
-      <c r="C27" s="23">
-        <v>34.049999999999997</v>
-      </c>
-      <c r="D27" s="23">
-        <v>13.102582854438491</v>
-      </c>
-      <c r="E27" s="24">
-        <v>2718.37</v>
+        <v>43738</v>
+      </c>
+      <c r="B27" s="28">
+        <v>39.81</v>
+      </c>
+      <c r="C27" s="30">
+        <v>33.99</v>
+      </c>
+      <c r="D27" s="28">
+        <v>14.801734274295193</v>
+      </c>
+      <c r="E27" s="22">
+        <v>2976.73727174433</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="21">
-        <v>43188</v>
-      </c>
-      <c r="B28" s="23">
-        <v>36.54</v>
-      </c>
-      <c r="C28" s="23">
-        <v>33.020000000000003</v>
-      </c>
-      <c r="D28" s="23">
-        <v>12.793986568954411</v>
-      </c>
-      <c r="E28" s="24">
-        <v>2640.8659903292901</v>
+        <v>43644</v>
+      </c>
+      <c r="B28" s="28">
+        <v>40.14</v>
+      </c>
+      <c r="C28" s="30">
+        <v>34.93</v>
+      </c>
+      <c r="D28" s="28">
+        <v>14.242944144807993</v>
+      </c>
+      <c r="E28" s="22">
+        <v>2941.76</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21">
-        <v>43098</v>
-      </c>
-      <c r="B29" s="23">
-        <v>33.85</v>
-      </c>
-      <c r="C29" s="23">
-        <v>26.96</v>
-      </c>
-      <c r="D29" s="23">
-        <v>12.782923979362749</v>
-      </c>
-      <c r="E29" s="24">
-        <v>2673.6105231517399</v>
+        <v>43553</v>
+      </c>
+      <c r="B29" s="28">
+        <v>37.99</v>
+      </c>
+      <c r="C29" s="30">
+        <v>35.020000000000003</v>
+      </c>
+      <c r="D29" s="28">
+        <v>13.982721935746159</v>
+      </c>
+      <c r="E29" s="22">
+        <v>2834.4</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="21">
-        <v>43008</v>
-      </c>
-      <c r="B30" s="23">
-        <v>31.33</v>
-      </c>
-      <c r="C30" s="23">
-        <v>28.45</v>
-      </c>
-      <c r="D30" s="23">
-        <v>12.310796746221648</v>
-      </c>
-      <c r="E30" s="24">
-        <v>2519.3596719060702</v>
+        <v>43465</v>
+      </c>
+      <c r="B30" s="28">
+        <v>35.03</v>
+      </c>
+      <c r="C30" s="28">
+        <v>28.96</v>
+      </c>
+      <c r="D30" s="28">
+        <v>14.192106539138369</v>
+      </c>
+      <c r="E30" s="22">
+        <v>2506.8471826272198</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21">
-        <v>42916</v>
-      </c>
-      <c r="B31" s="23">
-        <v>30.51</v>
-      </c>
-      <c r="C31" s="23">
-        <v>27.01</v>
-      </c>
-      <c r="D31" s="23">
-        <v>12.115322294034428</v>
-      </c>
-      <c r="E31" s="24">
-        <v>2423.4088910629698</v>
+        <v>43371</v>
+      </c>
+      <c r="B31" s="28">
+        <v>41.38</v>
+      </c>
+      <c r="C31" s="28">
+        <v>36.36</v>
+      </c>
+      <c r="D31" s="28">
+        <v>13.6595021220856</v>
+      </c>
+      <c r="E31" s="22">
+        <v>2913.97813988603</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21">
-        <v>42825</v>
-      </c>
-      <c r="B32" s="23">
-        <v>28.82</v>
-      </c>
-      <c r="C32" s="23">
-        <v>27.46</v>
-      </c>
-      <c r="D32" s="23">
-        <v>11.722976315988888</v>
-      </c>
-      <c r="E32" s="24">
-        <v>2362.7182203972902</v>
+        <v>43280</v>
+      </c>
+      <c r="B32" s="28">
+        <v>38.65</v>
+      </c>
+      <c r="C32" s="28">
+        <v>34.049999999999997</v>
+      </c>
+      <c r="D32" s="28">
+        <v>13.102582854438491</v>
+      </c>
+      <c r="E32" s="22">
+        <v>2718.37</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21">
-        <v>42735</v>
-      </c>
-      <c r="B33" s="23">
-        <v>27.9</v>
-      </c>
-      <c r="C33" s="23">
-        <v>24.16</v>
-      </c>
-      <c r="D33" s="23">
-        <v>12.024007621816583</v>
-      </c>
-      <c r="E33" s="24">
-        <v>2238.82668170754</v>
+        <v>43188</v>
+      </c>
+      <c r="B33" s="28">
+        <v>36.54</v>
+      </c>
+      <c r="C33" s="28">
+        <v>33.020000000000003</v>
+      </c>
+      <c r="D33" s="28">
+        <v>12.793986568954411</v>
+      </c>
+      <c r="E33" s="22">
+        <v>2640.8659903292901</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="21">
-        <v>42643</v>
-      </c>
-      <c r="B34" s="23">
-        <v>28.69</v>
-      </c>
-      <c r="C34" s="23">
-        <v>25.39</v>
-      </c>
-      <c r="D34" s="23">
-        <v>11.356713187797851</v>
-      </c>
-      <c r="E34" s="24">
-        <v>2168.2720896372798</v>
+        <v>43098</v>
+      </c>
+      <c r="B34" s="28">
+        <v>33.85</v>
+      </c>
+      <c r="C34" s="28">
+        <v>26.96</v>
+      </c>
+      <c r="D34" s="28">
+        <v>12.782923979362749</v>
+      </c>
+      <c r="E34" s="22">
+        <v>2673.6105231517399</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="21">
-        <v>42551</v>
-      </c>
-      <c r="B35" s="23">
-        <v>25.7</v>
-      </c>
-      <c r="C35" s="23">
-        <v>23.28</v>
-      </c>
-      <c r="D35" s="23">
-        <v>11.278726726038828</v>
-      </c>
-      <c r="E35" s="24">
-        <v>2098.8552265056101</v>
+        <v>43008</v>
+      </c>
+      <c r="B35" s="28">
+        <v>31.33</v>
+      </c>
+      <c r="C35" s="28">
+        <v>28.45</v>
+      </c>
+      <c r="D35" s="28">
+        <v>12.310796746221648</v>
+      </c>
+      <c r="E35" s="22">
+        <v>2519.3596719060702</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="21">
-        <v>42460</v>
-      </c>
-      <c r="B36" s="23">
-        <v>23.97</v>
-      </c>
-      <c r="C36" s="23">
-        <v>21.72</v>
-      </c>
-      <c r="D36" s="23">
-        <v>11.041155949644605</v>
-      </c>
-      <c r="E36" s="24">
-        <v>2059.7411766011501</v>
+        <v>42916</v>
+      </c>
+      <c r="B36" s="28">
+        <v>30.51</v>
+      </c>
+      <c r="C36" s="28">
+        <v>27.01</v>
+      </c>
+      <c r="D36" s="28">
+        <v>12.115322294034428</v>
+      </c>
+      <c r="E36" s="22">
+        <v>2423.4088910629698</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="21">
-        <v>42369</v>
-      </c>
-      <c r="B37" s="23">
-        <v>23.06</v>
-      </c>
-      <c r="C37" s="23">
-        <v>18.7</v>
-      </c>
-      <c r="D37" s="23">
-        <v>11.34909544426143</v>
-      </c>
-      <c r="E37" s="24">
-        <v>2043.9368626607099</v>
+        <v>42825</v>
+      </c>
+      <c r="B37" s="28">
+        <v>28.82</v>
+      </c>
+      <c r="C37" s="28">
+        <v>27.46</v>
+      </c>
+      <c r="D37" s="28">
+        <v>11.722976315988888</v>
+      </c>
+      <c r="E37" s="22">
+        <v>2362.7182203972902</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="21">
-        <v>42277</v>
-      </c>
-      <c r="B38" s="23">
-        <v>25.44</v>
-      </c>
-      <c r="C38" s="23">
-        <v>23.22</v>
-      </c>
-      <c r="D38" s="23">
-        <v>10.7908992578251</v>
-      </c>
-      <c r="E38" s="24">
-        <v>1920.0265516397001</v>
+        <v>42735</v>
+      </c>
+      <c r="B38" s="28">
+        <v>27.9</v>
+      </c>
+      <c r="C38" s="28">
+        <v>24.16</v>
+      </c>
+      <c r="D38" s="28">
+        <v>12.024007621816583</v>
+      </c>
+      <c r="E38" s="22">
+        <v>2238.82668170754</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="10"/>
-      <c r="I38" s="8"/>
-    </row>
-    <row r="39" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="21">
-        <v>42185</v>
-      </c>
-      <c r="B39" s="23">
-        <v>26.14</v>
-      </c>
-      <c r="C39" s="23">
-        <v>22.8</v>
-      </c>
-      <c r="D39" s="23">
-        <v>10.694788941567241</v>
-      </c>
-      <c r="E39" s="24">
-        <v>2063.1118322236698</v>
+        <v>42643</v>
+      </c>
+      <c r="B39" s="28">
+        <v>28.69</v>
+      </c>
+      <c r="C39" s="28">
+        <v>25.39</v>
+      </c>
+      <c r="D39" s="28">
+        <v>11.356713187797851</v>
+      </c>
+      <c r="E39" s="22">
+        <v>2168.2720896372798</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="10"/>
-      <c r="I39" s="8"/>
-    </row>
-    <row r="40" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="21">
-        <v>42094</v>
-      </c>
-      <c r="B40" s="23">
-        <v>25.81</v>
-      </c>
-      <c r="C40" s="23">
-        <v>21.81</v>
-      </c>
-      <c r="D40" s="23">
-        <v>10.55310371727637</v>
-      </c>
-      <c r="E40" s="24">
-        <v>2067.88724075851</v>
+        <v>42551</v>
+      </c>
+      <c r="B40" s="28">
+        <v>25.7</v>
+      </c>
+      <c r="C40" s="28">
+        <v>23.28</v>
+      </c>
+      <c r="D40" s="28">
+        <v>11.278726726038828</v>
+      </c>
+      <c r="E40" s="22">
+        <v>2098.8552265056101</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="10"/>
-      <c r="I40" s="8"/>
-    </row>
-    <row r="41" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="21">
-        <v>42004</v>
-      </c>
-      <c r="B41" s="23">
-        <v>26.76</v>
-      </c>
-      <c r="C41" s="23">
-        <v>22.83</v>
-      </c>
-      <c r="D41" s="23">
-        <v>10.471604592804113</v>
-      </c>
-      <c r="E41" s="24">
-        <v>2058.9023788568802</v>
+        <v>42460</v>
+      </c>
+      <c r="B41" s="28">
+        <v>23.97</v>
+      </c>
+      <c r="C41" s="28">
+        <v>21.72</v>
+      </c>
+      <c r="D41" s="28">
+        <v>11.041155949644605</v>
+      </c>
+      <c r="E41" s="22">
+        <v>2059.7411766011501</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="10"/>
-      <c r="I41" s="8"/>
-    </row>
-    <row r="42" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="21">
-        <v>41912</v>
-      </c>
-      <c r="B42" s="23">
-        <v>29.6</v>
-      </c>
-      <c r="C42" s="23">
-        <v>27.47</v>
-      </c>
-      <c r="D42" s="23">
-        <v>10.022504558286219</v>
-      </c>
-      <c r="E42" s="24">
-        <v>1972.28514504996</v>
+        <v>42369</v>
+      </c>
+      <c r="B42" s="28">
+        <v>23.06</v>
+      </c>
+      <c r="C42" s="28">
+        <v>18.7</v>
+      </c>
+      <c r="D42" s="28">
+        <v>11.34909544426143</v>
+      </c>
+      <c r="E42" s="22">
+        <v>2043.9368626607099</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="10"/>
-      <c r="I42" s="8"/>
     </row>
     <row r="43" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="21">
-        <v>41820</v>
-      </c>
-      <c r="B43" s="23">
-        <v>29.34</v>
-      </c>
-      <c r="C43" s="23">
-        <v>27.14</v>
-      </c>
-      <c r="D43" s="23">
-        <v>9.7593969785702033</v>
-      </c>
-      <c r="E43" s="24">
-        <v>1960.23124036383</v>
+        <v>42277</v>
+      </c>
+      <c r="B43" s="28">
+        <v>25.44</v>
+      </c>
+      <c r="C43" s="28">
+        <v>23.22</v>
+      </c>
+      <c r="D43" s="28">
+        <v>10.7908992578251</v>
+      </c>
+      <c r="E43" s="22">
+        <v>1920.0265516397001</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="10"/>
+      <c r="I43" s="8"/>
     </row>
     <row r="44" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="21">
-        <v>41729</v>
-      </c>
-      <c r="B44" s="23">
-        <v>27.32</v>
-      </c>
-      <c r="C44" s="23">
-        <v>24.87</v>
-      </c>
-      <c r="D44" s="23">
-        <v>9.1896349630694125</v>
-      </c>
-      <c r="E44" s="24">
-        <v>1872.33517921728</v>
+        <v>42185</v>
+      </c>
+      <c r="B44" s="28">
+        <v>26.14</v>
+      </c>
+      <c r="C44" s="28">
+        <v>22.8</v>
+      </c>
+      <c r="D44" s="28">
+        <v>10.694788941567241</v>
+      </c>
+      <c r="E44" s="22">
+        <v>2063.1118322236698</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="10"/>
+      <c r="I44" s="8"/>
     </row>
     <row r="45" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="21">
-        <v>41639</v>
-      </c>
-      <c r="B45" s="23">
-        <v>28.25</v>
-      </c>
-      <c r="C45" s="23">
-        <v>26.48</v>
-      </c>
-      <c r="D45" s="23">
-        <v>9.5230747966072222</v>
-      </c>
-      <c r="E45" s="24">
-        <v>1848.3565209419301</v>
+        <v>42094</v>
+      </c>
+      <c r="B45" s="28">
+        <v>25.81</v>
+      </c>
+      <c r="C45" s="28">
+        <v>21.81</v>
+      </c>
+      <c r="D45" s="28">
+        <v>10.55310371727637</v>
+      </c>
+      <c r="E45" s="22">
+        <v>2067.88724075851</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="10"/>
+      <c r="I45" s="8"/>
     </row>
     <row r="46" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="21">
-        <v>41547</v>
-      </c>
-      <c r="B46" s="23">
-        <v>26.92</v>
-      </c>
-      <c r="C46" s="23">
-        <v>24.63</v>
-      </c>
-      <c r="D46" s="23">
-        <v>8.9085700586745507</v>
-      </c>
-      <c r="E46" s="24">
-        <v>1681.54666211214</v>
+        <v>42004</v>
+      </c>
+      <c r="B46" s="28">
+        <v>26.76</v>
+      </c>
+      <c r="C46" s="28">
+        <v>22.83</v>
+      </c>
+      <c r="D46" s="28">
+        <v>10.471604592804113</v>
+      </c>
+      <c r="E46" s="22">
+        <v>2058.9023788568802</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="10"/>
+      <c r="I46" s="8"/>
     </row>
     <row r="47" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="21">
-        <v>41455</v>
-      </c>
-      <c r="B47" s="23">
-        <v>26.36</v>
-      </c>
-      <c r="C47" s="23">
-        <v>24.87</v>
-      </c>
-      <c r="D47" s="23">
-        <v>8.6063992544553507</v>
-      </c>
-      <c r="E47" s="24">
-        <v>1606.27760773726</v>
+        <v>41912</v>
+      </c>
+      <c r="B47" s="28">
+        <v>29.6</v>
+      </c>
+      <c r="C47" s="28">
+        <v>27.47</v>
+      </c>
+      <c r="D47" s="28">
+        <v>10.022504558286219</v>
+      </c>
+      <c r="E47" s="22">
+        <v>1972.28514504996</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="10"/>
+      <c r="I47" s="8"/>
     </row>
     <row r="48" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="21">
-        <v>41364</v>
-      </c>
-      <c r="B48" s="23">
-        <v>25.77</v>
-      </c>
-      <c r="C48" s="23">
-        <v>24.22</v>
-      </c>
-      <c r="D48" s="23">
-        <v>7.9539999999999997</v>
-      </c>
-      <c r="E48" s="24">
-        <v>1569.18587246845</v>
+        <v>41820</v>
+      </c>
+      <c r="B48" s="28">
+        <v>29.34</v>
+      </c>
+      <c r="C48" s="28">
+        <v>27.14</v>
+      </c>
+      <c r="D48" s="28">
+        <v>9.7593969785702033</v>
+      </c>
+      <c r="E48" s="22">
+        <v>1960.23124036383</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="10"/>
     </row>
     <row r="49" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="21">
-        <v>41274</v>
-      </c>
-      <c r="B49" s="23">
-        <v>23.15</v>
-      </c>
-      <c r="C49" s="25">
-        <v>20.65</v>
-      </c>
-      <c r="D49" s="23">
-        <v>8.9349420680692422</v>
-      </c>
-      <c r="E49" s="24">
-        <v>1426.18797808055</v>
+        <v>41729</v>
+      </c>
+      <c r="B49" s="28">
+        <v>27.32</v>
+      </c>
+      <c r="C49" s="28">
+        <v>24.87</v>
+      </c>
+      <c r="D49" s="28">
+        <v>9.1896349630694125</v>
+      </c>
+      <c r="E49" s="22">
+        <v>1872.33517921728</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="10"/>
     </row>
     <row r="50" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="21">
-        <v>41182</v>
-      </c>
-      <c r="B50" s="23">
-        <v>24</v>
-      </c>
-      <c r="C50" s="25">
-        <v>21.21</v>
-      </c>
-      <c r="D50" s="23">
-        <v>7.7709999999999999</v>
-      </c>
-      <c r="E50" s="24">
-        <v>1440.67450263613</v>
+        <v>41639</v>
+      </c>
+      <c r="B50" s="28">
+        <v>28.25</v>
+      </c>
+      <c r="C50" s="28">
+        <v>26.48</v>
+      </c>
+      <c r="D50" s="28">
+        <v>9.5230747966072222</v>
+      </c>
+      <c r="E50" s="22">
+        <v>1848.3565209419301</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="10"/>
     </row>
     <row r="51" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="21">
-        <v>41090</v>
-      </c>
-      <c r="B51" s="23">
-        <v>25.43</v>
-      </c>
-      <c r="C51" s="25">
-        <v>21.62</v>
-      </c>
-      <c r="D51" s="23">
-        <v>7.4520000000000008</v>
-      </c>
-      <c r="E51" s="24">
-        <v>1362.1587454406599</v>
+        <v>41547</v>
+      </c>
+      <c r="B51" s="28">
+        <v>26.92</v>
+      </c>
+      <c r="C51" s="28">
+        <v>24.63</v>
+      </c>
+      <c r="D51" s="28">
+        <v>8.9085700586745507</v>
+      </c>
+      <c r="E51" s="22">
+        <v>1681.54666211214</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="10"/>
     </row>
-    <row r="52" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="21">
-        <v>40999</v>
-      </c>
-      <c r="B52" s="23">
-        <v>24.24</v>
-      </c>
-      <c r="C52" s="25">
-        <v>23.03</v>
-      </c>
-      <c r="D52" s="23">
-        <v>7.0889999999999995</v>
-      </c>
-      <c r="E52" s="24">
-        <v>1408.46786041941</v>
+        <v>41455</v>
+      </c>
+      <c r="B52" s="28">
+        <v>26.36</v>
+      </c>
+      <c r="C52" s="28">
+        <v>24.87</v>
+      </c>
+      <c r="D52" s="28">
+        <v>8.6063992544553507</v>
+      </c>
+      <c r="E52" s="22">
+        <v>1606.27760773726</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="10"/>
     </row>
-    <row r="53" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="21">
-        <v>40908</v>
-      </c>
-      <c r="B53" s="23">
-        <v>23.73</v>
-      </c>
-      <c r="C53" s="23">
-        <v>20.64</v>
-      </c>
-      <c r="D53" s="23">
-        <v>7.2779999999999996</v>
-      </c>
-      <c r="E53" s="24">
-        <v>1257.60480453436</v>
+        <v>41364</v>
+      </c>
+      <c r="B53" s="28">
+        <v>25.77</v>
+      </c>
+      <c r="C53" s="28">
+        <v>24.22</v>
+      </c>
+      <c r="D53" s="28">
+        <v>7.9539999999999997</v>
+      </c>
+      <c r="E53" s="22">
+        <v>1569.18587246845</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="10"/>
     </row>
     <row r="54" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="21">
-        <v>40816</v>
-      </c>
-      <c r="B54" s="23">
-        <v>25.29</v>
-      </c>
-      <c r="C54" s="23">
-        <v>22.63</v>
-      </c>
-      <c r="D54" s="23">
-        <v>6.5010000000000003</v>
-      </c>
-      <c r="E54" s="24">
-        <v>1131.42036008329</v>
+        <v>41274</v>
+      </c>
+      <c r="B54" s="28">
+        <v>23.15</v>
+      </c>
+      <c r="C54" s="31">
+        <v>20.65</v>
+      </c>
+      <c r="D54" s="28">
+        <v>8.9349420680692422</v>
+      </c>
+      <c r="E54" s="22">
+        <v>1426.18797808055</v>
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="10"/>
     </row>
     <row r="55" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="21">
-        <v>40724</v>
-      </c>
-      <c r="B55" s="23">
-        <v>24.86</v>
-      </c>
-      <c r="C55" s="23">
-        <v>22.24</v>
-      </c>
-      <c r="D55" s="23">
-        <v>6.4849999999999994</v>
-      </c>
-      <c r="E55" s="24">
-        <v>1320.63904926284</v>
+        <v>41182</v>
+      </c>
+      <c r="B55" s="28">
+        <v>24</v>
+      </c>
+      <c r="C55" s="31">
+        <v>21.21</v>
+      </c>
+      <c r="D55" s="28">
+        <v>7.7709999999999999</v>
+      </c>
+      <c r="E55" s="22">
+        <v>1440.67450263613</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="10"/>
     </row>
     <row r="56" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="21">
-        <v>40633</v>
-      </c>
-      <c r="B56" s="23">
-        <v>22.56</v>
-      </c>
-      <c r="C56" s="23">
-        <v>21.44</v>
-      </c>
-      <c r="D56" s="23">
-        <v>6.1609999999999996</v>
-      </c>
-      <c r="E56" s="24">
-        <v>1325.82671751112</v>
+        <v>41090</v>
+      </c>
+      <c r="B56" s="28">
+        <v>25.43</v>
+      </c>
+      <c r="C56" s="31">
+        <v>21.62</v>
+      </c>
+      <c r="D56" s="28">
+        <v>7.4520000000000008</v>
+      </c>
+      <c r="E56" s="22">
+        <v>1362.1587454406599</v>
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="10"/>
     </row>
     <row r="57" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="21">
-        <v>40543</v>
-      </c>
-      <c r="B57" s="23">
-        <v>21.93</v>
-      </c>
-      <c r="C57" s="23">
-        <v>20.67</v>
-      </c>
-      <c r="D57" s="23">
-        <v>6.0340000000000007</v>
-      </c>
-      <c r="E57" s="24">
-        <v>1257.63598797798</v>
+        <v>40999</v>
+      </c>
+      <c r="B57" s="28">
+        <v>24.24</v>
+      </c>
+      <c r="C57" s="31">
+        <v>23.03</v>
+      </c>
+      <c r="D57" s="28">
+        <v>7.0889999999999995</v>
+      </c>
+      <c r="E57" s="22">
+        <v>1408.46786041941</v>
       </c>
       <c r="F57" s="9"/>
       <c r="G57" s="10"/>
     </row>
-    <row r="58" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="21">
-        <v>40451</v>
-      </c>
-      <c r="B58" s="23">
-        <v>21.56</v>
-      </c>
-      <c r="C58" s="23">
-        <v>19.52</v>
-      </c>
-      <c r="D58" s="23">
-        <v>5.6609999999999996</v>
-      </c>
-      <c r="E58" s="24">
-        <v>1141.20115690593</v>
+        <v>40908</v>
+      </c>
+      <c r="B58" s="28">
+        <v>23.73</v>
+      </c>
+      <c r="C58" s="28">
+        <v>20.64</v>
+      </c>
+      <c r="D58" s="28">
+        <v>7.2779999999999996</v>
+      </c>
+      <c r="E58" s="22">
+        <v>1257.60480453436</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="10"/>
     </row>
-    <row r="59" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="21">
-        <v>40359</v>
-      </c>
-      <c r="B59" s="23">
-        <v>20.9</v>
-      </c>
-      <c r="C59" s="23">
-        <v>19.68</v>
-      </c>
-      <c r="D59" s="23">
-        <v>5.5750000000000002</v>
-      </c>
-      <c r="E59" s="24">
-        <v>1030.71008330308</v>
+        <v>40816</v>
+      </c>
+      <c r="B59" s="28">
+        <v>25.29</v>
+      </c>
+      <c r="C59" s="28">
+        <v>22.63</v>
+      </c>
+      <c r="D59" s="28">
+        <v>6.5010000000000003</v>
+      </c>
+      <c r="E59" s="22">
+        <v>1131.42036008329</v>
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="10"/>
     </row>
-    <row r="60" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="21">
-        <v>40268</v>
-      </c>
-      <c r="B60" s="23">
-        <v>19.38</v>
-      </c>
-      <c r="C60" s="23">
-        <v>17.48</v>
-      </c>
-      <c r="D60" s="23">
-        <v>5.4589999999999996</v>
-      </c>
-      <c r="E60" s="24">
-        <v>1169.43119269817</v>
+        <v>40724</v>
+      </c>
+      <c r="B60" s="28">
+        <v>24.86</v>
+      </c>
+      <c r="C60" s="28">
+        <v>22.24</v>
+      </c>
+      <c r="D60" s="28">
+        <v>6.4849999999999994</v>
+      </c>
+      <c r="E60" s="22">
+        <v>1320.63904926284</v>
       </c>
       <c r="F60" s="9"/>
       <c r="G60" s="10"/>
     </row>
     <row r="61" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="21">
-        <v>40178</v>
-      </c>
-      <c r="B61" s="26">
-        <v>17.16</v>
-      </c>
-      <c r="C61" s="26">
-        <v>15.18</v>
-      </c>
-      <c r="D61" s="23">
-        <v>5.6579999999999995</v>
-      </c>
-      <c r="E61" s="27">
-        <v>1115.0999999999999</v>
+        <v>40633</v>
+      </c>
+      <c r="B61" s="28">
+        <v>22.56</v>
+      </c>
+      <c r="C61" s="28">
+        <v>21.44</v>
+      </c>
+      <c r="D61" s="28">
+        <v>6.1609999999999996</v>
+      </c>
+      <c r="E61" s="22">
+        <v>1325.82671751112</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="10"/>
     </row>
     <row r="62" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="21">
-        <v>40086</v>
+        <v>40543</v>
       </c>
       <c r="B62" s="28">
-        <v>15.78</v>
+        <v>21.93</v>
       </c>
       <c r="C62" s="28">
-        <v>14.76</v>
-      </c>
-      <c r="D62" s="23">
-        <v>5.3449999999999998</v>
-      </c>
-      <c r="E62" s="24">
-        <v>1057.0786000000001</v>
+        <v>20.67</v>
+      </c>
+      <c r="D62" s="28">
+        <v>6.0340000000000007</v>
+      </c>
+      <c r="E62" s="22">
+        <v>1257.63598797798</v>
       </c>
       <c r="F62" s="9"/>
       <c r="G62" s="10"/>
     </row>
     <row r="63" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="21">
-        <v>39994</v>
-      </c>
-      <c r="B63" s="23">
-        <v>13.81</v>
-      </c>
-      <c r="C63" s="23">
-        <v>13.51</v>
-      </c>
-      <c r="D63" s="23">
-        <v>5.4420000000000002</v>
-      </c>
-      <c r="E63" s="24">
-        <v>919.32</v>
+        <v>40451</v>
+      </c>
+      <c r="B63" s="28">
+        <v>21.56</v>
+      </c>
+      <c r="C63" s="28">
+        <v>19.52</v>
+      </c>
+      <c r="D63" s="28">
+        <v>5.6609999999999996</v>
+      </c>
+      <c r="E63" s="22">
+        <v>1141.20115690593</v>
       </c>
       <c r="F63" s="9"/>
       <c r="G63" s="10"/>
     </row>
     <row r="64" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="21">
-        <v>39903</v>
-      </c>
-      <c r="B64" s="23">
-        <v>10.11</v>
-      </c>
-      <c r="C64" s="23">
-        <v>7.52</v>
-      </c>
-      <c r="D64" s="23">
-        <v>5.96</v>
-      </c>
-      <c r="E64" s="24">
-        <v>797.86699999999996</v>
+        <v>40359</v>
+      </c>
+      <c r="B64" s="28">
+        <v>20.9</v>
+      </c>
+      <c r="C64" s="28">
+        <v>19.68</v>
+      </c>
+      <c r="D64" s="28">
+        <v>5.5750000000000002</v>
+      </c>
+      <c r="E64" s="22">
+        <v>1030.71008330308</v>
       </c>
       <c r="F64" s="9"/>
       <c r="G64" s="10"/>
     </row>
-    <row r="65" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="21">
-        <v>39813</v>
-      </c>
-      <c r="B65" s="26">
-        <v>-0.09</v>
-      </c>
-      <c r="C65" s="26">
-        <v>-23.25</v>
-      </c>
-      <c r="D65" s="23">
-        <v>7.1540000000000008</v>
-      </c>
-      <c r="E65" s="24">
-        <v>903.25</v>
+        <v>40268</v>
+      </c>
+      <c r="B65" s="28">
+        <v>19.38</v>
+      </c>
+      <c r="C65" s="28">
+        <v>17.48</v>
+      </c>
+      <c r="D65" s="28">
+        <v>5.4589999999999996</v>
+      </c>
+      <c r="E65" s="22">
+        <v>1169.43119269817</v>
       </c>
       <c r="F65" s="9"/>
       <c r="G65" s="10"/>
     </row>
-    <row r="66" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="21">
-        <v>39721</v>
-      </c>
-      <c r="B66" s="26">
-        <v>15.96</v>
-      </c>
-      <c r="C66" s="26">
-        <v>9.73</v>
-      </c>
-      <c r="D66" s="23">
-        <v>7.0380000000000003</v>
-      </c>
-      <c r="E66" s="24">
-        <v>1166.361418</v>
+        <v>40178</v>
+      </c>
+      <c r="B66" s="32">
+        <v>17.16</v>
+      </c>
+      <c r="C66" s="32">
+        <v>15.18</v>
+      </c>
+      <c r="D66" s="28">
+        <v>5.6579999999999995</v>
+      </c>
+      <c r="E66" s="23">
+        <v>1115.0999999999999</v>
       </c>
       <c r="F66" s="9"/>
       <c r="G66" s="10"/>
     </row>
-    <row r="67" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="21">
-        <v>39629</v>
-      </c>
-      <c r="B67" s="26">
-        <v>17.02</v>
-      </c>
-      <c r="C67" s="26">
-        <v>12.86</v>
-      </c>
-      <c r="D67" s="23">
-        <v>7.1029999999999998</v>
-      </c>
-      <c r="E67" s="24">
-        <v>1280.001</v>
+        <v>40086</v>
+      </c>
+      <c r="B67" s="33">
+        <v>15.78</v>
+      </c>
+      <c r="C67" s="33">
+        <v>14.76</v>
+      </c>
+      <c r="D67" s="28">
+        <v>5.3449999999999998</v>
+      </c>
+      <c r="E67" s="22">
+        <v>1057.0786000000001</v>
       </c>
       <c r="F67" s="9"/>
       <c r="G67" s="10"/>
     </row>
-    <row r="68" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="21">
-        <v>39538</v>
-      </c>
-      <c r="B68" s="23">
-        <v>16.62</v>
-      </c>
-      <c r="C68" s="26">
-        <v>15.54</v>
-      </c>
-      <c r="D68" s="23">
-        <v>7.0920000000000005</v>
-      </c>
-      <c r="E68" s="24">
-        <v>1322.703</v>
+        <v>39994</v>
+      </c>
+      <c r="B68" s="28">
+        <v>13.81</v>
+      </c>
+      <c r="C68" s="28">
+        <v>13.51</v>
+      </c>
+      <c r="D68" s="28">
+        <v>5.4420000000000002</v>
+      </c>
+      <c r="E68" s="22">
+        <v>919.32</v>
       </c>
       <c r="F68" s="9"/>
       <c r="G68" s="10"/>
     </row>
-    <row r="69" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="21">
-        <v>39447</v>
-      </c>
-      <c r="B69" s="26">
-        <v>15.22</v>
-      </c>
-      <c r="C69" s="23">
-        <v>7.82</v>
-      </c>
-      <c r="D69" s="23">
-        <v>7.6209999999999996</v>
-      </c>
-      <c r="E69" s="24">
-        <v>1468.3552</v>
+        <v>39903</v>
+      </c>
+      <c r="B69" s="28">
+        <v>10.11</v>
+      </c>
+      <c r="C69" s="28">
+        <v>7.52</v>
+      </c>
+      <c r="D69" s="28">
+        <v>5.96</v>
+      </c>
+      <c r="E69" s="22">
+        <v>797.86699999999996</v>
       </c>
       <c r="F69" s="9"/>
       <c r="G69" s="10"/>
     </row>
     <row r="70" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="21">
-        <v>39355</v>
-      </c>
-      <c r="B70" s="26">
-        <v>20.87</v>
-      </c>
-      <c r="C70" s="23">
-        <v>15.15</v>
-      </c>
-      <c r="D70" s="23">
-        <v>6.8960000000000008</v>
-      </c>
-      <c r="E70" s="24">
-        <v>1526.7470000000001</v>
+        <v>39813</v>
+      </c>
+      <c r="B70" s="32">
+        <v>-0.09</v>
+      </c>
+      <c r="C70" s="32">
+        <v>-23.25</v>
+      </c>
+      <c r="D70" s="28">
+        <v>7.1540000000000008</v>
+      </c>
+      <c r="E70" s="22">
+        <v>903.25</v>
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="10"/>
     </row>
     <row r="71" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="21">
-        <v>39263</v>
-      </c>
-      <c r="B71" s="23">
-        <v>24.06</v>
-      </c>
-      <c r="C71" s="23">
-        <v>21.880744314722936</v>
-      </c>
-      <c r="D71" s="23">
-        <v>6.6930000000000005</v>
-      </c>
-      <c r="E71" s="24">
-        <v>1503.3486</v>
+        <v>39721</v>
+      </c>
+      <c r="B71" s="32">
+        <v>15.96</v>
+      </c>
+      <c r="C71" s="32">
+        <v>9.73</v>
+      </c>
+      <c r="D71" s="28">
+        <v>7.0380000000000003</v>
+      </c>
+      <c r="E71" s="22">
+        <v>1166.361418</v>
       </c>
       <c r="F71" s="9"/>
       <c r="G71" s="10"/>
     </row>
     <row r="72" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="21">
-        <v>39172</v>
-      </c>
-      <c r="B72" s="26">
-        <v>22.39</v>
-      </c>
-      <c r="C72" s="23">
-        <v>21.33</v>
-      </c>
-      <c r="D72" s="23">
-        <v>6.5220000000000002</v>
-      </c>
-      <c r="E72" s="24">
-        <v>1420.864</v>
+        <v>39629</v>
+      </c>
+      <c r="B72" s="32">
+        <v>17.02</v>
+      </c>
+      <c r="C72" s="32">
+        <v>12.86</v>
+      </c>
+      <c r="D72" s="28">
+        <v>7.1029999999999998</v>
+      </c>
+      <c r="E72" s="22">
+        <v>1280.001</v>
       </c>
       <c r="F72" s="9"/>
       <c r="G72" s="10"/>
     </row>
     <row r="73" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="21">
-        <v>39082</v>
-      </c>
-      <c r="B73" s="26">
-        <v>21.99</v>
-      </c>
-      <c r="C73" s="23">
-        <v>20.239999999999998</v>
-      </c>
-      <c r="D73" s="23">
-        <v>6.867</v>
-      </c>
-      <c r="E73" s="24">
-        <v>1418.3005000000001</v>
+        <v>39538</v>
+      </c>
+      <c r="B73" s="28">
+        <v>16.62</v>
+      </c>
+      <c r="C73" s="32">
+        <v>15.54</v>
+      </c>
+      <c r="D73" s="28">
+        <v>7.0920000000000005</v>
+      </c>
+      <c r="E73" s="22">
+        <v>1322.703</v>
       </c>
       <c r="F73" s="9"/>
       <c r="G73" s="10"/>
     </row>
     <row r="74" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="21">
-        <v>38990</v>
-      </c>
-      <c r="B74" s="23">
-        <v>23.03</v>
-      </c>
-      <c r="C74" s="23">
-        <v>21.47</v>
-      </c>
-      <c r="D74" s="23">
-        <v>6.0879999999999992</v>
-      </c>
-      <c r="E74" s="24">
-        <v>1335.847</v>
+        <v>39447</v>
+      </c>
+      <c r="B74" s="32">
+        <v>15.22</v>
+      </c>
+      <c r="C74" s="28">
+        <v>7.82</v>
+      </c>
+      <c r="D74" s="28">
+        <v>7.6209999999999996</v>
+      </c>
+      <c r="E74" s="22">
+        <v>1468.3552</v>
       </c>
       <c r="F74" s="9"/>
       <c r="G74" s="10"/>
     </row>
     <row r="75" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="21">
-        <v>38898</v>
-      </c>
-      <c r="B75" s="23">
-        <v>21.95</v>
-      </c>
-      <c r="C75" s="23">
-        <v>20.11</v>
-      </c>
-      <c r="D75" s="23">
-        <v>6.0170000000000003</v>
-      </c>
-      <c r="E75" s="29">
-        <v>1270.2</v>
+        <v>39355</v>
+      </c>
+      <c r="B75" s="32">
+        <v>20.87</v>
+      </c>
+      <c r="C75" s="28">
+        <v>15.15</v>
+      </c>
+      <c r="D75" s="28">
+        <v>6.8960000000000008</v>
+      </c>
+      <c r="E75" s="22">
+        <v>1526.7470000000001</v>
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="10"/>
     </row>
     <row r="76" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="21">
-        <v>38807</v>
-      </c>
-      <c r="B76" s="23">
-        <v>20.75</v>
-      </c>
-      <c r="C76" s="23">
-        <v>19.690000000000001</v>
-      </c>
-      <c r="D76" s="23">
-        <v>5.9119999999999999</v>
-      </c>
-      <c r="E76" s="24">
-        <v>1294.83</v>
+        <v>39263</v>
+      </c>
+      <c r="B76" s="28">
+        <v>24.06</v>
+      </c>
+      <c r="C76" s="28">
+        <v>21.880744314722936</v>
+      </c>
+      <c r="D76" s="28">
+        <v>6.6930000000000005</v>
+      </c>
+      <c r="E76" s="22">
+        <v>1503.3486</v>
       </c>
       <c r="F76" s="9"/>
       <c r="G76" s="10"/>
     </row>
     <row r="77" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="21">
-        <v>38717</v>
-      </c>
-      <c r="B77" s="23">
-        <v>20.190000000000001</v>
-      </c>
-      <c r="C77" s="23">
-        <v>17.3</v>
-      </c>
-      <c r="D77" s="23">
-        <v>6.0790000000000006</v>
-      </c>
-      <c r="E77" s="24">
-        <v>1248.29</v>
+        <v>39172</v>
+      </c>
+      <c r="B77" s="32">
+        <v>22.39</v>
+      </c>
+      <c r="C77" s="28">
+        <v>21.33</v>
+      </c>
+      <c r="D77" s="28">
+        <v>6.5220000000000002</v>
+      </c>
+      <c r="E77" s="22">
+        <v>1420.864</v>
       </c>
       <c r="F77" s="9"/>
       <c r="G77" s="10"/>
     </row>
     <row r="78" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="21">
-        <v>38625</v>
-      </c>
-      <c r="B78" s="23">
-        <v>18.84</v>
-      </c>
-      <c r="C78" s="23">
-        <v>17.39</v>
-      </c>
-      <c r="D78" s="23">
-        <v>5.4290000000000003</v>
-      </c>
-      <c r="E78" s="24">
-        <v>1228.81</v>
+        <v>39082</v>
+      </c>
+      <c r="B78" s="32">
+        <v>21.99</v>
+      </c>
+      <c r="C78" s="28">
+        <v>20.239999999999998</v>
+      </c>
+      <c r="D78" s="28">
+        <v>6.867</v>
+      </c>
+      <c r="E78" s="22">
+        <v>1418.3005000000001</v>
       </c>
       <c r="F78" s="9"/>
       <c r="G78" s="10"/>
     </row>
     <row r="79" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="21">
-        <v>38533</v>
-      </c>
-      <c r="B79" s="23">
-        <v>19.420000000000002</v>
-      </c>
-      <c r="C79" s="23">
-        <v>18.29</v>
-      </c>
-      <c r="D79" s="23">
-        <v>5.3639999999999999</v>
-      </c>
-      <c r="E79" s="24">
-        <v>1191.33</v>
+        <v>38990</v>
+      </c>
+      <c r="B79" s="28">
+        <v>23.03</v>
+      </c>
+      <c r="C79" s="28">
+        <v>21.47</v>
+      </c>
+      <c r="D79" s="28">
+        <v>6.0879999999999992</v>
+      </c>
+      <c r="E79" s="22">
+        <v>1335.847</v>
       </c>
       <c r="F79" s="9"/>
       <c r="G79" s="10"/>
     </row>
     <row r="80" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="21">
-        <v>38442</v>
-      </c>
-      <c r="B80" s="23">
-        <v>18</v>
-      </c>
-      <c r="C80" s="23">
-        <v>16.850000000000001</v>
-      </c>
-      <c r="D80" s="23">
-        <v>5.3440000000000003</v>
+        <v>38898</v>
+      </c>
+      <c r="B80" s="28">
+        <v>21.95</v>
+      </c>
+      <c r="C80" s="28">
+        <v>20.11</v>
+      </c>
+      <c r="D80" s="28">
+        <v>6.0170000000000003</v>
       </c>
       <c r="E80" s="24">
-        <v>1180.5899999999999</v>
+        <v>1270.2</v>
       </c>
       <c r="F80" s="9"/>
       <c r="G80" s="10"/>
     </row>
     <row r="81" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="21">
-        <v>38352</v>
-      </c>
-      <c r="B81" s="23">
-        <v>17.95</v>
-      </c>
-      <c r="C81" s="23">
-        <v>13.94</v>
-      </c>
-      <c r="D81" s="23">
-        <v>5.3339999999999996</v>
-      </c>
-      <c r="E81" s="24">
-        <v>1211.92</v>
+        <v>38807</v>
+      </c>
+      <c r="B81" s="28">
+        <v>20.75</v>
+      </c>
+      <c r="C81" s="28">
+        <v>19.690000000000001</v>
+      </c>
+      <c r="D81" s="28">
+        <v>5.9119999999999999</v>
+      </c>
+      <c r="E81" s="22">
+        <v>1294.83</v>
       </c>
       <c r="F81" s="9"/>
       <c r="G81" s="10"/>
     </row>
     <row r="82" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="21">
-        <v>38260</v>
-      </c>
-      <c r="B82" s="23">
-        <v>16.88</v>
-      </c>
-      <c r="C82" s="23">
-        <v>14.18</v>
-      </c>
-      <c r="D82" s="23">
-        <v>4.8830000000000009</v>
-      </c>
-      <c r="E82" s="24">
-        <v>1114.58</v>
+        <v>38717</v>
+      </c>
+      <c r="B82" s="28">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="C82" s="28">
+        <v>17.3</v>
+      </c>
+      <c r="D82" s="28">
+        <v>6.0790000000000006</v>
+      </c>
+      <c r="E82" s="22">
+        <v>1248.29</v>
       </c>
       <c r="F82" s="9"/>
       <c r="G82" s="10"/>
     </row>
     <row r="83" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="21">
-        <v>38168</v>
-      </c>
-      <c r="B83" s="23">
-        <v>16.98</v>
-      </c>
-      <c r="C83" s="23">
-        <v>15.25</v>
-      </c>
-      <c r="D83" s="23">
-        <v>4.6639999999999997</v>
-      </c>
-      <c r="E83" s="24">
-        <v>1140.8399999999999</v>
+        <v>38625</v>
+      </c>
+      <c r="B83" s="28">
+        <v>18.84</v>
+      </c>
+      <c r="C83" s="28">
+        <v>17.39</v>
+      </c>
+      <c r="D83" s="28">
+        <v>5.4290000000000003</v>
+      </c>
+      <c r="E83" s="22">
+        <v>1228.81</v>
       </c>
       <c r="F83" s="9"/>
       <c r="G83" s="10"/>
     </row>
     <row r="84" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="21">
-        <v>38077</v>
-      </c>
-      <c r="B84" s="23">
-        <v>15.87</v>
-      </c>
-      <c r="C84" s="23">
-        <v>15.18</v>
-      </c>
-      <c r="D84" s="23">
-        <v>4.5609999999999999</v>
-      </c>
-      <c r="E84" s="24">
-        <v>1126.21</v>
+        <v>38533</v>
+      </c>
+      <c r="B84" s="28">
+        <v>19.420000000000002</v>
+      </c>
+      <c r="C84" s="28">
+        <v>18.29</v>
+      </c>
+      <c r="D84" s="28">
+        <v>5.3639999999999999</v>
+      </c>
+      <c r="E84" s="22">
+        <v>1191.33</v>
       </c>
       <c r="F84" s="9"/>
       <c r="G84" s="10"/>
     </row>
     <row r="85" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="21">
-        <v>37986</v>
-      </c>
-      <c r="B85" s="23">
-        <v>14.88</v>
-      </c>
-      <c r="C85" s="23">
-        <v>13.16</v>
-      </c>
-      <c r="D85" s="23">
-        <v>5.0549999999999997</v>
-      </c>
-      <c r="E85" s="24">
-        <v>1111.92</v>
+        <v>38442</v>
+      </c>
+      <c r="B85" s="28">
+        <v>18</v>
+      </c>
+      <c r="C85" s="28">
+        <v>16.850000000000001</v>
+      </c>
+      <c r="D85" s="28">
+        <v>5.3440000000000003</v>
+      </c>
+      <c r="E85" s="22">
+        <v>1180.5899999999999</v>
       </c>
       <c r="F85" s="9"/>
       <c r="G85" s="10"/>
     </row>
     <row r="86" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="21">
-        <v>37894</v>
-      </c>
-      <c r="B86" s="23">
-        <v>14.41</v>
-      </c>
-      <c r="C86" s="23">
-        <v>12.56</v>
-      </c>
-      <c r="D86" s="23">
-        <v>4.3220000000000001</v>
-      </c>
-      <c r="E86" s="24">
-        <v>995.97</v>
+        <v>38352</v>
+      </c>
+      <c r="B86" s="28">
+        <v>17.95</v>
+      </c>
+      <c r="C86" s="28">
+        <v>13.94</v>
+      </c>
+      <c r="D86" s="28">
+        <v>5.3339999999999996</v>
+      </c>
+      <c r="E86" s="22">
+        <v>1211.92</v>
       </c>
       <c r="F86" s="9"/>
       <c r="G86" s="10"/>
     </row>
     <row r="87" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="21">
-        <v>37802</v>
-      </c>
-      <c r="B87" s="23">
-        <v>12.92</v>
-      </c>
-      <c r="C87" s="23">
-        <v>11.1</v>
-      </c>
-      <c r="D87" s="23">
-        <v>4.0860000000000003</v>
-      </c>
-      <c r="E87" s="24">
-        <v>974.5</v>
+        <v>38260</v>
+      </c>
+      <c r="B87" s="28">
+        <v>16.88</v>
+      </c>
+      <c r="C87" s="28">
+        <v>14.18</v>
+      </c>
+      <c r="D87" s="28">
+        <v>4.8830000000000009</v>
+      </c>
+      <c r="E87" s="22">
+        <v>1114.58</v>
       </c>
       <c r="F87" s="9"/>
       <c r="G87" s="10"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="21">
-        <v>37711</v>
-      </c>
-      <c r="B88" s="23">
-        <v>12.48</v>
-      </c>
-      <c r="C88" s="23">
-        <v>11.92</v>
-      </c>
-      <c r="D88" s="23">
-        <v>3.9220000000000002</v>
-      </c>
-      <c r="E88" s="24">
-        <v>848.18</v>
+        <v>38168</v>
+      </c>
+      <c r="B88" s="28">
+        <v>16.98</v>
+      </c>
+      <c r="C88" s="28">
+        <v>15.25</v>
+      </c>
+      <c r="D88" s="28">
+        <v>4.6639999999999997</v>
+      </c>
+      <c r="E88" s="22">
+        <v>1140.8399999999999</v>
       </c>
       <c r="F88" s="9"/>
       <c r="G88" s="10"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="21">
-        <v>37621</v>
-      </c>
-      <c r="B89" s="23">
-        <v>11.94</v>
-      </c>
-      <c r="C89" s="23">
-        <v>3</v>
-      </c>
-      <c r="D89" s="23">
-        <v>4.2560000000000002</v>
-      </c>
-      <c r="E89" s="24">
-        <v>879.82</v>
+        <v>38077</v>
+      </c>
+      <c r="B89" s="28">
+        <v>15.87</v>
+      </c>
+      <c r="C89" s="28">
+        <v>15.18</v>
+      </c>
+      <c r="D89" s="28">
+        <v>4.5609999999999999</v>
+      </c>
+      <c r="E89" s="22">
+        <v>1126.21</v>
       </c>
       <c r="F89" s="9"/>
       <c r="G89" s="10"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="21">
-        <v>37529</v>
-      </c>
-      <c r="B90" s="23">
-        <v>11.61</v>
-      </c>
-      <c r="C90" s="23">
-        <v>8.5299999999999994</v>
-      </c>
-      <c r="D90" s="23">
-        <v>3.9009999999999998</v>
-      </c>
-      <c r="E90" s="24">
-        <v>815.28</v>
+        <v>37986</v>
+      </c>
+      <c r="B90" s="28">
+        <v>14.88</v>
+      </c>
+      <c r="C90" s="28">
+        <v>13.16</v>
+      </c>
+      <c r="D90" s="28">
+        <v>5.0549999999999997</v>
+      </c>
+      <c r="E90" s="22">
+        <v>1111.92</v>
       </c>
       <c r="F90" s="9"/>
       <c r="G90" s="10"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="21">
-        <v>37437</v>
-      </c>
-      <c r="B91" s="23">
-        <v>11.64</v>
-      </c>
-      <c r="C91" s="23">
-        <v>6.87</v>
-      </c>
-      <c r="D91" s="23">
-        <v>4.1449999999999996</v>
-      </c>
-      <c r="E91" s="24">
-        <v>989.81</v>
+        <v>37894</v>
+      </c>
+      <c r="B91" s="28">
+        <v>14.41</v>
+      </c>
+      <c r="C91" s="28">
+        <v>12.56</v>
+      </c>
+      <c r="D91" s="28">
+        <v>4.3220000000000001</v>
+      </c>
+      <c r="E91" s="22">
+        <v>995.97</v>
       </c>
       <c r="F91" s="9"/>
       <c r="G91" s="10"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="21">
-        <v>37346</v>
-      </c>
-      <c r="B92" s="23">
-        <v>10.85</v>
-      </c>
-      <c r="C92" s="23">
-        <v>9.19</v>
-      </c>
-      <c r="D92" s="23">
-        <v>3.7720000000000002</v>
-      </c>
-      <c r="E92" s="24">
-        <v>1147.3900000000001</v>
+        <v>37802</v>
+      </c>
+      <c r="B92" s="28">
+        <v>12.92</v>
+      </c>
+      <c r="C92" s="28">
+        <v>11.1</v>
+      </c>
+      <c r="D92" s="28">
+        <v>4.0860000000000003</v>
+      </c>
+      <c r="E92" s="22">
+        <v>974.5</v>
       </c>
       <c r="F92" s="9"/>
       <c r="G92" s="10"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="21">
-        <v>37256</v>
-      </c>
-      <c r="B93" s="23">
-        <v>9.94</v>
-      </c>
-      <c r="C93" s="23">
-        <v>5.45</v>
-      </c>
-      <c r="D93" s="23">
-        <v>3.9809999999999999</v>
-      </c>
-      <c r="E93" s="24">
-        <v>1148.08</v>
+        <v>37711</v>
+      </c>
+      <c r="B93" s="28">
+        <v>12.48</v>
+      </c>
+      <c r="C93" s="28">
+        <v>11.92</v>
+      </c>
+      <c r="D93" s="28">
+        <v>3.9220000000000002</v>
+      </c>
+      <c r="E93" s="22">
+        <v>848.18</v>
       </c>
       <c r="F93" s="9"/>
       <c r="G93" s="10"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="21">
-        <v>37164</v>
-      </c>
-      <c r="B94" s="23">
-        <v>9.16</v>
-      </c>
-      <c r="C94" s="23">
-        <v>5.23</v>
-      </c>
-      <c r="D94" s="23">
-        <v>4.141</v>
-      </c>
-      <c r="E94" s="24">
-        <v>1040.94</v>
+        <v>37621</v>
+      </c>
+      <c r="B94" s="28">
+        <v>11.94</v>
+      </c>
+      <c r="C94" s="28">
+        <v>3</v>
+      </c>
+      <c r="D94" s="28">
+        <v>4.2560000000000002</v>
+      </c>
+      <c r="E94" s="22">
+        <v>879.82</v>
       </c>
       <c r="F94" s="9"/>
       <c r="G94" s="10"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="21">
-        <v>37072</v>
-      </c>
-      <c r="B95" s="23">
-        <v>9.02</v>
-      </c>
-      <c r="C95" s="23">
-        <v>4.83</v>
-      </c>
-      <c r="D95" s="23">
-        <v>3.8359999999999999</v>
-      </c>
-      <c r="E95" s="24">
-        <v>1224.3800000000001</v>
+        <v>37529</v>
+      </c>
+      <c r="B95" s="28">
+        <v>11.61</v>
+      </c>
+      <c r="C95" s="28">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="D95" s="28">
+        <v>3.9009999999999998</v>
+      </c>
+      <c r="E95" s="22">
+        <v>815.28</v>
       </c>
       <c r="F95" s="9"/>
       <c r="G95" s="10"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="21">
-        <v>36981</v>
-      </c>
-      <c r="B96" s="23">
-        <v>10.73</v>
-      </c>
-      <c r="C96" s="23">
-        <v>9.18</v>
-      </c>
-      <c r="D96" s="23">
-        <v>3.782</v>
-      </c>
-      <c r="E96" s="24">
-        <v>1160.33</v>
+        <v>37437</v>
+      </c>
+      <c r="B96" s="28">
+        <v>11.64</v>
+      </c>
+      <c r="C96" s="28">
+        <v>6.87</v>
+      </c>
+      <c r="D96" s="28">
+        <v>4.1449999999999996</v>
+      </c>
+      <c r="E96" s="22">
+        <v>989.81</v>
       </c>
       <c r="F96" s="9"/>
       <c r="G96" s="10"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="21">
-        <v>36891</v>
-      </c>
-      <c r="B97" s="23">
-        <v>13.11</v>
-      </c>
-      <c r="C97" s="23">
-        <v>9.07</v>
-      </c>
-      <c r="D97" s="23">
-        <v>3.9769999999999999</v>
-      </c>
-      <c r="E97" s="24">
-        <v>1320.28</v>
+        <v>37346</v>
+      </c>
+      <c r="B97" s="28">
+        <v>10.85</v>
+      </c>
+      <c r="C97" s="28">
+        <v>9.19</v>
+      </c>
+      <c r="D97" s="28">
+        <v>3.7720000000000002</v>
+      </c>
+      <c r="E97" s="22">
+        <v>1147.3900000000001</v>
       </c>
       <c r="F97" s="9"/>
       <c r="G97" s="10"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="21">
-        <v>36799</v>
-      </c>
-      <c r="B98" s="23">
-        <v>14.17</v>
-      </c>
-      <c r="C98" s="23">
-        <v>13.71</v>
-      </c>
-      <c r="D98" s="23">
-        <v>4.0909999999999993</v>
-      </c>
-      <c r="E98" s="24">
-        <v>1436.51</v>
+        <v>37256</v>
+      </c>
+      <c r="B98" s="28">
+        <v>9.94</v>
+      </c>
+      <c r="C98" s="28">
+        <v>5.45</v>
+      </c>
+      <c r="D98" s="28">
+        <v>3.9809999999999999</v>
+      </c>
+      <c r="E98" s="22">
+        <v>1148.08</v>
       </c>
       <c r="F98" s="9"/>
       <c r="G98" s="10"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="21">
-        <v>36707</v>
-      </c>
-      <c r="B99" s="23">
-        <v>14.88</v>
-      </c>
-      <c r="C99" s="23">
-        <v>13.48</v>
-      </c>
-      <c r="D99" s="23">
-        <v>4.1230000000000002</v>
-      </c>
-      <c r="E99" s="24">
-        <v>1454.6</v>
+        <v>37164</v>
+      </c>
+      <c r="B99" s="28">
+        <v>9.16</v>
+      </c>
+      <c r="C99" s="28">
+        <v>5.23</v>
+      </c>
+      <c r="D99" s="28">
+        <v>4.141</v>
+      </c>
+      <c r="E99" s="22">
+        <v>1040.94</v>
       </c>
       <c r="F99" s="9"/>
       <c r="G99" s="10"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="21">
-        <v>36616</v>
-      </c>
-      <c r="B100" s="23">
-        <v>13.97</v>
-      </c>
-      <c r="C100" s="23">
-        <v>13.74</v>
-      </c>
-      <c r="D100" s="23">
-        <v>4.08</v>
-      </c>
-      <c r="E100" s="24">
-        <v>1498.58</v>
+        <v>37072</v>
+      </c>
+      <c r="B100" s="28">
+        <v>9.02</v>
+      </c>
+      <c r="C100" s="28">
+        <v>4.83</v>
+      </c>
+      <c r="D100" s="28">
+        <v>3.8359999999999999</v>
+      </c>
+      <c r="E100" s="22">
+        <v>1224.3800000000001</v>
       </c>
       <c r="F100" s="9"/>
       <c r="G100" s="10"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="21">
-        <v>36525</v>
-      </c>
-      <c r="B101" s="23">
-        <v>13.77</v>
-      </c>
-      <c r="C101" s="23">
-        <v>12.77</v>
-      </c>
-      <c r="D101" s="23">
-        <v>4.0529999999999999</v>
-      </c>
-      <c r="E101" s="24">
-        <v>1469.25</v>
+        <v>36981</v>
+      </c>
+      <c r="B101" s="28">
+        <v>10.73</v>
+      </c>
+      <c r="C101" s="28">
+        <v>9.18</v>
+      </c>
+      <c r="D101" s="28">
+        <v>3.782</v>
+      </c>
+      <c r="E101" s="22">
+        <v>1160.33</v>
       </c>
       <c r="F101" s="9"/>
       <c r="G101" s="10"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="21">
-        <v>36433</v>
-      </c>
-      <c r="B102" s="23">
-        <v>12.97</v>
-      </c>
-      <c r="C102" s="23">
-        <v>11.93</v>
-      </c>
-      <c r="D102" s="23">
-        <v>4.4480000000000004</v>
-      </c>
-      <c r="E102" s="24">
-        <v>1282.71</v>
+        <v>36891</v>
+      </c>
+      <c r="B102" s="28">
+        <v>13.11</v>
+      </c>
+      <c r="C102" s="28">
+        <v>9.07</v>
+      </c>
+      <c r="D102" s="28">
+        <v>3.9769999999999999</v>
+      </c>
+      <c r="E102" s="22">
+        <v>1320.28</v>
       </c>
       <c r="F102" s="9"/>
       <c r="G102" s="10"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="21">
-        <v>36341</v>
-      </c>
-      <c r="B103" s="23">
-        <v>13.21</v>
-      </c>
-      <c r="C103" s="23">
-        <v>12.51</v>
-      </c>
-      <c r="D103" s="23">
-        <v>4.181</v>
-      </c>
-      <c r="E103" s="24">
-        <v>1372.71</v>
+        <v>36799</v>
+      </c>
+      <c r="B103" s="28">
+        <v>14.17</v>
+      </c>
+      <c r="C103" s="28">
+        <v>13.71</v>
+      </c>
+      <c r="D103" s="28">
+        <v>4.0909999999999993</v>
+      </c>
+      <c r="E103" s="22">
+        <v>1436.51</v>
       </c>
       <c r="F103" s="9"/>
       <c r="G103" s="10"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="21">
-        <v>36250</v>
-      </c>
-      <c r="B104" s="23">
-        <v>11.73</v>
-      </c>
-      <c r="C104" s="23">
-        <v>10.96</v>
-      </c>
-      <c r="D104" s="23">
-        <v>4.01</v>
-      </c>
-      <c r="E104" s="24">
-        <v>1286.3699999999999</v>
+        <v>36707</v>
+      </c>
+      <c r="B104" s="28">
+        <v>14.88</v>
+      </c>
+      <c r="C104" s="28">
+        <v>13.48</v>
+      </c>
+      <c r="D104" s="28">
+        <v>4.1230000000000002</v>
+      </c>
+      <c r="E104" s="22">
+        <v>1454.6</v>
       </c>
       <c r="F104" s="9"/>
       <c r="G104" s="10"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="21">
-        <v>36160</v>
-      </c>
-      <c r="B105" s="23">
-        <v>11.47</v>
-      </c>
-      <c r="C105" s="23">
-        <v>8.56</v>
-      </c>
-      <c r="D105" s="23">
-        <v>4.0019999999999998</v>
-      </c>
-      <c r="E105" s="24">
-        <v>1229.23</v>
+        <v>36616</v>
+      </c>
+      <c r="B105" s="28">
+        <v>13.97</v>
+      </c>
+      <c r="C105" s="28">
+        <v>13.74</v>
+      </c>
+      <c r="D105" s="28">
+        <v>4.08</v>
+      </c>
+      <c r="E105" s="22">
+        <v>1498.58</v>
       </c>
       <c r="F105" s="9"/>
       <c r="G105" s="10"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="21">
-        <v>36068</v>
-      </c>
-      <c r="B106" s="23">
-        <v>10.45</v>
-      </c>
-      <c r="C106" s="23">
-        <v>8.99</v>
-      </c>
-      <c r="D106" s="23">
-        <v>4.2549999999999999</v>
-      </c>
-      <c r="E106" s="24">
-        <v>1017.01</v>
+        <v>36525</v>
+      </c>
+      <c r="B106" s="28">
+        <v>13.77</v>
+      </c>
+      <c r="C106" s="28">
+        <v>12.77</v>
+      </c>
+      <c r="D106" s="28">
+        <v>4.0529999999999999</v>
+      </c>
+      <c r="E106" s="22">
+        <v>1469.25</v>
       </c>
       <c r="F106" s="9"/>
       <c r="G106" s="10"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="21">
-        <v>35976</v>
-      </c>
-      <c r="B107" s="23">
-        <v>11.43</v>
-      </c>
-      <c r="C107" s="23">
-        <v>9.8699999999999992</v>
-      </c>
-      <c r="D107" s="23">
-        <v>4.1819999999999995</v>
-      </c>
-      <c r="E107" s="24">
-        <v>1133.8399999999999</v>
+        <v>36433</v>
+      </c>
+      <c r="B107" s="28">
+        <v>12.97</v>
+      </c>
+      <c r="C107" s="28">
+        <v>11.93</v>
+      </c>
+      <c r="D107" s="28">
+        <v>4.4480000000000004</v>
+      </c>
+      <c r="E107" s="22">
+        <v>1282.71</v>
       </c>
       <c r="F107" s="9"/>
       <c r="G107" s="10"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="21">
-        <v>35885</v>
-      </c>
-      <c r="B108" s="23">
-        <v>10.92</v>
-      </c>
-      <c r="C108" s="23">
-        <v>10.29</v>
-      </c>
-      <c r="D108" s="23">
-        <v>3.7560000000000002</v>
-      </c>
-      <c r="E108" s="24">
-        <v>1101.75</v>
+        <v>36341</v>
+      </c>
+      <c r="B108" s="28">
+        <v>13.21</v>
+      </c>
+      <c r="C108" s="28">
+        <v>12.51</v>
+      </c>
+      <c r="D108" s="28">
+        <v>4.181</v>
+      </c>
+      <c r="E108" s="22">
+        <v>1372.71</v>
       </c>
       <c r="F108" s="9"/>
       <c r="G108" s="10"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="21">
-        <v>35795</v>
-      </c>
-      <c r="B109" s="23">
-        <v>11.29</v>
-      </c>
-      <c r="C109" s="23">
-        <v>8.94</v>
-      </c>
-      <c r="D109" s="23">
-        <v>3.95</v>
-      </c>
-      <c r="E109" s="24">
-        <v>970.43</v>
+        <v>36250</v>
+      </c>
+      <c r="B109" s="28">
+        <v>11.73</v>
+      </c>
+      <c r="C109" s="28">
+        <v>10.96</v>
+      </c>
+      <c r="D109" s="28">
+        <v>4.01</v>
+      </c>
+      <c r="E109" s="22">
+        <v>1286.3699999999999</v>
       </c>
       <c r="F109" s="9"/>
       <c r="G109" s="10"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="21">
-        <v>35703</v>
-      </c>
-      <c r="B110" s="23">
-        <v>11.03</v>
-      </c>
-      <c r="C110" s="23">
-        <v>9.8699999999999992</v>
-      </c>
-      <c r="D110" s="23">
-        <v>4.0620000000000003</v>
-      </c>
-      <c r="E110" s="24">
-        <v>947.28</v>
+        <v>36160</v>
+      </c>
+      <c r="B110" s="28">
+        <v>11.47</v>
+      </c>
+      <c r="C110" s="28">
+        <v>8.56</v>
+      </c>
+      <c r="D110" s="28">
+        <v>4.0019999999999998</v>
+      </c>
+      <c r="E110" s="22">
+        <v>1229.23</v>
       </c>
       <c r="F110" s="9"/>
       <c r="G110" s="10"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="21">
-        <v>35611</v>
-      </c>
-      <c r="B111" s="23">
-        <v>11.13</v>
-      </c>
-      <c r="C111" s="23">
-        <v>10.44</v>
-      </c>
-      <c r="D111" s="23">
-        <v>3.8730000000000002</v>
-      </c>
-      <c r="E111" s="24">
-        <v>885.14</v>
+        <v>36068</v>
+      </c>
+      <c r="B111" s="28">
+        <v>10.45</v>
+      </c>
+      <c r="C111" s="28">
+        <v>8.99</v>
+      </c>
+      <c r="D111" s="28">
+        <v>4.2549999999999999</v>
+      </c>
+      <c r="E111" s="22">
+        <v>1017.01</v>
       </c>
       <c r="F111" s="9"/>
       <c r="G111" s="10"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="21">
-        <v>35520</v>
-      </c>
-      <c r="B112" s="23">
-        <v>10.56</v>
-      </c>
-      <c r="C112" s="23">
-        <v>10.47</v>
-      </c>
-      <c r="D112" s="23">
-        <v>3.6120000000000001</v>
-      </c>
-      <c r="E112" s="24">
-        <v>757.12</v>
+        <v>35976</v>
+      </c>
+      <c r="B112" s="28">
+        <v>11.43</v>
+      </c>
+      <c r="C112" s="28">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="D112" s="28">
+        <v>4.1819999999999995</v>
+      </c>
+      <c r="E112" s="22">
+        <v>1133.8399999999999</v>
       </c>
       <c r="F112" s="9"/>
       <c r="G112" s="10"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="21">
-        <v>35430</v>
-      </c>
-      <c r="B113" s="23">
-        <v>11.01</v>
-      </c>
-      <c r="C113" s="23">
-        <v>9.86</v>
-      </c>
-      <c r="D113" s="23">
-        <v>3.7859999999999996</v>
-      </c>
-      <c r="E113" s="24">
-        <v>740.74</v>
+        <v>35885</v>
+      </c>
+      <c r="B113" s="28">
+        <v>10.92</v>
+      </c>
+      <c r="C113" s="28">
+        <v>10.29</v>
+      </c>
+      <c r="D113" s="28">
+        <v>3.7560000000000002</v>
+      </c>
+      <c r="E113" s="22">
+        <v>1101.75</v>
       </c>
       <c r="F113" s="9"/>
       <c r="G113" s="10"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="21">
-        <v>35338</v>
-      </c>
-      <c r="B114" s="23">
-        <v>9.92</v>
-      </c>
-      <c r="C114" s="23">
-        <v>9.7799999999999994</v>
-      </c>
-      <c r="D114" s="23">
-        <v>3.89</v>
-      </c>
-      <c r="E114" s="24">
-        <v>687.33</v>
+        <v>35795</v>
+      </c>
+      <c r="B114" s="28">
+        <v>11.29</v>
+      </c>
+      <c r="C114" s="28">
+        <v>8.94</v>
+      </c>
+      <c r="D114" s="28">
+        <v>3.95</v>
+      </c>
+      <c r="E114" s="22">
+        <v>970.43</v>
       </c>
       <c r="F114" s="9"/>
       <c r="G114" s="10"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="21">
-        <v>35246</v>
-      </c>
-      <c r="B115" s="23">
-        <v>10.31</v>
-      </c>
-      <c r="C115" s="23">
-        <v>10.130000000000001</v>
-      </c>
-      <c r="D115" s="23">
-        <v>3.7709999999999999</v>
-      </c>
-      <c r="E115" s="24">
-        <v>670.63</v>
+        <v>35703</v>
+      </c>
+      <c r="B115" s="28">
+        <v>11.03</v>
+      </c>
+      <c r="C115" s="28">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="D115" s="28">
+        <v>4.0620000000000003</v>
+      </c>
+      <c r="E115" s="22">
+        <v>947.28</v>
       </c>
       <c r="F115" s="9"/>
       <c r="G115" s="10"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="21">
-        <v>35155</v>
-      </c>
-      <c r="B116" s="23">
-        <v>9.39</v>
-      </c>
-      <c r="C116" s="23">
-        <v>8.9600000000000009</v>
-      </c>
-      <c r="D116" s="23">
-        <v>3.452</v>
-      </c>
-      <c r="E116" s="24">
-        <v>645.5</v>
+        <v>35611</v>
+      </c>
+      <c r="B116" s="28">
+        <v>11.13</v>
+      </c>
+      <c r="C116" s="28">
+        <v>10.44</v>
+      </c>
+      <c r="D116" s="28">
+        <v>3.8730000000000002</v>
+      </c>
+      <c r="E116" s="22">
+        <v>885.14</v>
       </c>
       <c r="F116" s="9"/>
       <c r="G116" s="10"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="21">
-        <v>35064</v>
-      </c>
-      <c r="B117" s="23">
-        <v>9.7799999999999994</v>
-      </c>
-      <c r="C117" s="23">
-        <v>7.13</v>
-      </c>
-      <c r="D117" s="23">
-        <v>3.5510000000000002</v>
-      </c>
-      <c r="E117" s="24">
-        <v>615.92999999999995</v>
+        <v>35520</v>
+      </c>
+      <c r="B117" s="28">
+        <v>10.56</v>
+      </c>
+      <c r="C117" s="28">
+        <v>10.47</v>
+      </c>
+      <c r="D117" s="28">
+        <v>3.6120000000000001</v>
+      </c>
+      <c r="E117" s="22">
+        <v>757.12</v>
       </c>
       <c r="F117" s="9"/>
       <c r="G117" s="10"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="21">
-        <v>34972</v>
-      </c>
-      <c r="B118" s="23">
-        <v>9.7799999999999994</v>
-      </c>
-      <c r="C118" s="23">
-        <v>8.69</v>
-      </c>
-      <c r="D118" s="23">
-        <v>3.4989999999999997</v>
-      </c>
-      <c r="E118" s="24">
-        <v>584.41</v>
+        <v>35430</v>
+      </c>
+      <c r="B118" s="28">
+        <v>11.01</v>
+      </c>
+      <c r="C118" s="28">
+        <v>9.86</v>
+      </c>
+      <c r="D118" s="28">
+        <v>3.7859999999999996</v>
+      </c>
+      <c r="E118" s="22">
+        <v>740.74</v>
       </c>
       <c r="F118" s="9"/>
       <c r="G118" s="10"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="21">
-        <v>34880</v>
-      </c>
-      <c r="B119" s="23">
-        <v>9.5</v>
-      </c>
-      <c r="C119" s="23">
-        <v>9.26</v>
-      </c>
-      <c r="D119" s="23">
-        <v>3.6019999999999999</v>
-      </c>
-      <c r="E119" s="24">
-        <v>544.75</v>
+        <v>35338</v>
+      </c>
+      <c r="B119" s="28">
+        <v>9.92</v>
+      </c>
+      <c r="C119" s="28">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="D119" s="28">
+        <v>3.89</v>
+      </c>
+      <c r="E119" s="22">
+        <v>687.33</v>
       </c>
       <c r="F119" s="9"/>
       <c r="G119" s="10"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="21">
-        <v>34789</v>
-      </c>
-      <c r="B120" s="23">
-        <v>8.64</v>
-      </c>
-      <c r="C120" s="23">
-        <v>8.8800000000000008</v>
-      </c>
-      <c r="D120" s="23">
-        <v>3.1360000000000001</v>
-      </c>
-      <c r="E120" s="24">
-        <v>500.71</v>
+        <v>35246</v>
+      </c>
+      <c r="B120" s="28">
+        <v>10.31</v>
+      </c>
+      <c r="C120" s="28">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="D120" s="28">
+        <v>3.7709999999999999</v>
+      </c>
+      <c r="E120" s="22">
+        <v>670.63</v>
       </c>
       <c r="F120" s="9"/>
       <c r="G120" s="10"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="21">
-        <v>34699</v>
-      </c>
-      <c r="B121" s="23">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="C121" s="23">
-        <v>8.35</v>
-      </c>
-      <c r="D121" s="23">
-        <v>3.3380000000000001</v>
-      </c>
-      <c r="E121" s="24">
-        <v>459.27</v>
+        <v>35155</v>
+      </c>
+      <c r="B121" s="28">
+        <v>9.39</v>
+      </c>
+      <c r="C121" s="28">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="D121" s="28">
+        <v>3.452</v>
+      </c>
+      <c r="E121" s="22">
+        <v>645.5</v>
       </c>
       <c r="F121" s="9"/>
       <c r="G121" s="10"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="21">
-        <v>34607</v>
-      </c>
-      <c r="B122" s="23">
-        <v>8.0299999999999994</v>
-      </c>
-      <c r="C122" s="23">
-        <v>7.94</v>
-      </c>
-      <c r="D122" s="23">
-        <v>3.2850000000000001</v>
-      </c>
-      <c r="E122" s="24">
-        <v>462.71</v>
+        <v>35064</v>
+      </c>
+      <c r="B122" s="28">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="C122" s="28">
+        <v>7.13</v>
+      </c>
+      <c r="D122" s="28">
+        <v>3.5510000000000002</v>
+      </c>
+      <c r="E122" s="22">
+        <v>615.92999999999995</v>
       </c>
       <c r="F122" s="9"/>
       <c r="G122" s="10"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="21">
-        <v>34515</v>
-      </c>
-      <c r="B123" s="23">
-        <v>7.75</v>
-      </c>
-      <c r="C123" s="23">
-        <v>7.38</v>
-      </c>
-      <c r="D123" s="23">
-        <v>3.4109999999999996</v>
-      </c>
-      <c r="E123" s="24">
-        <v>444.27</v>
+        <v>34972</v>
+      </c>
+      <c r="B123" s="28">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="C123" s="28">
+        <v>8.69</v>
+      </c>
+      <c r="D123" s="28">
+        <v>3.4989999999999997</v>
+      </c>
+      <c r="E123" s="22">
+        <v>584.41</v>
       </c>
       <c r="F123" s="9"/>
       <c r="G123" s="10"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="21">
-        <v>34424</v>
-      </c>
-      <c r="B124" s="23">
-        <v>7.17</v>
-      </c>
-      <c r="C124" s="23">
-        <v>6.93</v>
-      </c>
-      <c r="D124" s="23">
-        <v>3.1360000000000001</v>
-      </c>
-      <c r="E124" s="24">
-        <v>445.77</v>
+        <v>34880</v>
+      </c>
+      <c r="B124" s="28">
+        <v>9.5</v>
+      </c>
+      <c r="C124" s="28">
+        <v>9.26</v>
+      </c>
+      <c r="D124" s="28">
+        <v>3.6019999999999999</v>
+      </c>
+      <c r="E124" s="22">
+        <v>544.75</v>
       </c>
       <c r="F124" s="9"/>
       <c r="G124" s="10"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="21">
-        <v>34334</v>
-      </c>
-      <c r="B125" s="23">
-        <v>7.16</v>
-      </c>
-      <c r="C125" s="23">
-        <v>5.08</v>
-      </c>
-      <c r="D125" s="23">
-        <v>3.0910000000000002</v>
-      </c>
-      <c r="E125" s="24">
-        <v>466.45</v>
+        <v>34789</v>
+      </c>
+      <c r="B125" s="28">
+        <v>8.64</v>
+      </c>
+      <c r="C125" s="28">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="D125" s="28">
+        <v>3.1360000000000001</v>
+      </c>
+      <c r="E125" s="22">
+        <v>500.71</v>
       </c>
       <c r="F125" s="9"/>
       <c r="G125" s="10"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="21">
-        <v>34242</v>
-      </c>
-      <c r="B126" s="23">
-        <v>6.92</v>
-      </c>
-      <c r="C126" s="23">
-        <v>5.81</v>
-      </c>
-      <c r="D126" s="23">
-        <v>3.1969999999999996</v>
-      </c>
-      <c r="E126" s="24">
-        <v>458.93</v>
+        <v>34699</v>
+      </c>
+      <c r="B126" s="28">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C126" s="28">
+        <v>8.35</v>
+      </c>
+      <c r="D126" s="28">
+        <v>3.3380000000000001</v>
+      </c>
+      <c r="E126" s="22">
+        <v>459.27</v>
       </c>
       <c r="F126" s="9"/>
       <c r="G126" s="10"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="21">
-        <v>34150</v>
-      </c>
-      <c r="B127" s="23">
-        <v>6.57</v>
-      </c>
-      <c r="C127" s="23">
-        <v>4.8899999999999997</v>
-      </c>
-      <c r="D127" s="23">
-        <v>3.2829999999999995</v>
-      </c>
-      <c r="E127" s="24">
-        <v>450.53</v>
+        <v>34607</v>
+      </c>
+      <c r="B127" s="28">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="C127" s="28">
+        <v>7.94</v>
+      </c>
+      <c r="D127" s="28">
+        <v>3.2850000000000001</v>
+      </c>
+      <c r="E127" s="22">
+        <v>462.71</v>
       </c>
       <c r="F127" s="9"/>
       <c r="G127" s="10"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="21">
-        <v>34059</v>
-      </c>
-      <c r="B128" s="23">
-        <v>6.25</v>
-      </c>
-      <c r="C128" s="23">
-        <v>6.11</v>
-      </c>
-      <c r="D128" s="23">
-        <v>3.0059999999999998</v>
-      </c>
-      <c r="E128" s="24">
-        <v>451.67</v>
+        <v>34515</v>
+      </c>
+      <c r="B128" s="28">
+        <v>7.75</v>
+      </c>
+      <c r="C128" s="28">
+        <v>7.38</v>
+      </c>
+      <c r="D128" s="28">
+        <v>3.4109999999999996</v>
+      </c>
+      <c r="E128" s="22">
+        <v>444.27</v>
       </c>
       <c r="F128" s="9"/>
       <c r="G128" s="10"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="21">
-        <v>33969</v>
-      </c>
-      <c r="B129" s="23">
-        <v>5.61</v>
-      </c>
-      <c r="C129" s="23">
-        <v>3.6</v>
-      </c>
-      <c r="D129" s="23">
-        <v>3.0330000000000004</v>
-      </c>
-      <c r="E129" s="24">
-        <v>435.71</v>
+        <v>34424</v>
+      </c>
+      <c r="B129" s="28">
+        <v>7.17</v>
+      </c>
+      <c r="C129" s="28">
+        <v>6.93</v>
+      </c>
+      <c r="D129" s="28">
+        <v>3.1360000000000001</v>
+      </c>
+      <c r="E129" s="22">
+        <v>445.77</v>
       </c>
       <c r="F129" s="9"/>
       <c r="G129" s="10"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="21">
-        <v>33877</v>
-      </c>
-      <c r="B130" s="23">
-        <v>5.12</v>
-      </c>
-      <c r="C130" s="23">
-        <v>4.7300000000000004</v>
-      </c>
-      <c r="D130" s="23">
-        <v>3.2009999999999996</v>
-      </c>
-      <c r="E130" s="24">
-        <v>417.8</v>
+        <v>34334</v>
+      </c>
+      <c r="B130" s="28">
+        <v>7.16</v>
+      </c>
+      <c r="C130" s="28">
+        <v>5.08</v>
+      </c>
+      <c r="D130" s="28">
+        <v>3.0910000000000002</v>
+      </c>
+      <c r="E130" s="22">
+        <v>466.45</v>
       </c>
       <c r="F130" s="9"/>
       <c r="G130" s="10"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="21">
-        <v>33785</v>
-      </c>
-      <c r="B131" s="23">
-        <v>5.21</v>
-      </c>
-      <c r="C131" s="23">
-        <v>5.4</v>
-      </c>
-      <c r="D131" s="23">
-        <v>3.2389999999999999</v>
-      </c>
-      <c r="E131" s="24">
-        <v>408.14</v>
+        <v>34242</v>
+      </c>
+      <c r="B131" s="28">
+        <v>6.92</v>
+      </c>
+      <c r="C131" s="28">
+        <v>5.81</v>
+      </c>
+      <c r="D131" s="28">
+        <v>3.1969999999999996</v>
+      </c>
+      <c r="E131" s="22">
+        <v>458.93</v>
       </c>
       <c r="F131" s="9"/>
       <c r="G131" s="10"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="21">
-        <v>33694</v>
-      </c>
-      <c r="B132" s="23">
-        <v>4.93</v>
-      </c>
-      <c r="C132" s="23">
-        <v>5.36</v>
-      </c>
-      <c r="D132" s="23">
-        <v>2.9119999999999999</v>
-      </c>
-      <c r="E132" s="24">
-        <v>403.69</v>
+        <v>34150</v>
+      </c>
+      <c r="B132" s="28">
+        <v>6.57</v>
+      </c>
+      <c r="C132" s="28">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="D132" s="28">
+        <v>3.2829999999999995</v>
+      </c>
+      <c r="E132" s="22">
+        <v>450.53</v>
       </c>
       <c r="F132" s="9"/>
       <c r="G132" s="10"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="21">
-        <v>33603</v>
-      </c>
-      <c r="B133" s="23">
-        <v>4.63</v>
-      </c>
-      <c r="C133" s="23">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="D133" s="23">
-        <v>3.0430000000000001</v>
-      </c>
-      <c r="E133" s="24">
-        <v>417.09</v>
+        <v>34059</v>
+      </c>
+      <c r="B133" s="28">
+        <v>6.25</v>
+      </c>
+      <c r="C133" s="28">
+        <v>6.11</v>
+      </c>
+      <c r="D133" s="28">
+        <v>3.0059999999999998</v>
+      </c>
+      <c r="E133" s="22">
+        <v>451.67</v>
       </c>
       <c r="F133" s="9"/>
       <c r="G133" s="10"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="21">
-        <v>33511</v>
-      </c>
-      <c r="B134" s="23">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="C134" s="23">
-        <v>3.74</v>
-      </c>
-      <c r="D134" s="23">
-        <v>3.1259999999999994</v>
-      </c>
-      <c r="E134" s="24">
-        <v>387.86</v>
+        <v>33969</v>
+      </c>
+      <c r="B134" s="28">
+        <v>5.61</v>
+      </c>
+      <c r="C134" s="28">
+        <v>3.6</v>
+      </c>
+      <c r="D134" s="28">
+        <v>3.0330000000000004</v>
+      </c>
+      <c r="E134" s="22">
+        <v>435.71</v>
       </c>
       <c r="F134" s="9"/>
       <c r="G134" s="10"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="21">
-        <v>33419</v>
-      </c>
-      <c r="B135" s="23">
-        <v>4.79</v>
-      </c>
-      <c r="C135" s="23">
-        <v>4.54</v>
-      </c>
-      <c r="D135" s="23">
-        <v>3.2429999999999999</v>
-      </c>
-      <c r="E135" s="24">
-        <v>371.16</v>
+        <v>33877</v>
+      </c>
+      <c r="B135" s="28">
+        <v>5.12</v>
+      </c>
+      <c r="C135" s="28">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="D135" s="28">
+        <v>3.2009999999999996</v>
+      </c>
+      <c r="E135" s="22">
+        <v>417.8</v>
       </c>
       <c r="F135" s="9"/>
       <c r="G135" s="10"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="21">
-        <v>33328</v>
-      </c>
-      <c r="B136" s="23">
-        <v>4.7699999999999996</v>
-      </c>
-      <c r="C136" s="23">
-        <v>5.14</v>
-      </c>
-      <c r="D136" s="23">
-        <v>2.7909999999999995</v>
-      </c>
-      <c r="E136" s="24">
-        <v>375.22</v>
+        <v>33785</v>
+      </c>
+      <c r="B136" s="28">
+        <v>5.21</v>
+      </c>
+      <c r="C136" s="28">
+        <v>5.4</v>
+      </c>
+      <c r="D136" s="28">
+        <v>3.2389999999999999</v>
+      </c>
+      <c r="E136" s="22">
+        <v>408.14</v>
       </c>
       <c r="F136" s="9"/>
       <c r="G136" s="10"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="21">
-        <v>33238</v>
-      </c>
-      <c r="B137" s="23">
-        <v>5.01</v>
-      </c>
-      <c r="C137" s="23">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D137" s="23">
-        <v>3.1150000000000002</v>
-      </c>
-      <c r="E137" s="24">
-        <v>330.22</v>
+        <v>33694</v>
+      </c>
+      <c r="B137" s="28">
+        <v>4.93</v>
+      </c>
+      <c r="C137" s="28">
+        <v>5.36</v>
+      </c>
+      <c r="D137" s="28">
+        <v>2.9119999999999999</v>
+      </c>
+      <c r="E137" s="22">
+        <v>403.69</v>
       </c>
       <c r="F137" s="9"/>
       <c r="G137" s="10"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="21">
-        <v>33146</v>
-      </c>
-      <c r="B138" s="23">
-        <v>5.97</v>
-      </c>
-      <c r="C138" s="23">
-        <v>5.33</v>
-      </c>
-      <c r="D138" s="23">
-        <v>2.9980000000000002</v>
-      </c>
-      <c r="E138" s="24">
-        <v>306.05</v>
+        <v>33603</v>
+      </c>
+      <c r="B138" s="28">
+        <v>4.63</v>
+      </c>
+      <c r="C138" s="28">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D138" s="28">
+        <v>3.0430000000000001</v>
+      </c>
+      <c r="E138" s="22">
+        <v>417.09</v>
       </c>
       <c r="F138" s="9"/>
       <c r="G138" s="10"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="21">
-        <v>33054</v>
-      </c>
-      <c r="B139" s="23">
-        <v>6.06</v>
-      </c>
-      <c r="C139" s="23">
-        <v>6.07</v>
-      </c>
-      <c r="D139" s="23">
-        <v>3.206</v>
-      </c>
-      <c r="E139" s="24">
-        <v>358.02</v>
+        <v>33511</v>
+      </c>
+      <c r="B139" s="28">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="C139" s="28">
+        <v>3.74</v>
+      </c>
+      <c r="D139" s="28">
+        <v>3.1259999999999994</v>
+      </c>
+      <c r="E139" s="22">
+        <v>387.86</v>
       </c>
       <c r="F139" s="9"/>
       <c r="G139" s="10"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="21">
-        <v>32963</v>
-      </c>
-      <c r="B140" s="23">
-        <v>5.61</v>
-      </c>
-      <c r="C140" s="23">
-        <v>5.54</v>
-      </c>
-      <c r="D140" s="23">
-        <v>2.7669999999999999</v>
-      </c>
-      <c r="E140" s="24">
-        <v>339.94</v>
+        <v>33419</v>
+      </c>
+      <c r="B140" s="28">
+        <v>4.79</v>
+      </c>
+      <c r="C140" s="28">
+        <v>4.54</v>
+      </c>
+      <c r="D140" s="28">
+        <v>3.2429999999999999</v>
+      </c>
+      <c r="E140" s="22">
+        <v>371.16</v>
       </c>
       <c r="F140" s="9"/>
       <c r="G140" s="10"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="21">
-        <v>32873</v>
-      </c>
-      <c r="B141" s="23">
-        <v>5.84</v>
-      </c>
-      <c r="C141" s="23">
-        <v>4.8</v>
-      </c>
-      <c r="D141" s="23">
-        <v>2.863</v>
-      </c>
-      <c r="E141" s="24">
-        <v>353.4</v>
+        <v>33328</v>
+      </c>
+      <c r="B141" s="28">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="C141" s="28">
+        <v>5.14</v>
+      </c>
+      <c r="D141" s="28">
+        <v>2.7909999999999995</v>
+      </c>
+      <c r="E141" s="22">
+        <v>375.22</v>
       </c>
       <c r="F141" s="9"/>
       <c r="G141" s="10"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="21">
-        <v>32781</v>
-      </c>
-      <c r="B142" s="23">
-        <v>5.54</v>
-      </c>
-      <c r="C142" s="23">
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="D142" s="23">
-        <v>2.827</v>
-      </c>
-      <c r="E142" s="24">
-        <v>349.15</v>
+        <v>33238</v>
+      </c>
+      <c r="B142" s="28">
+        <v>5.01</v>
+      </c>
+      <c r="C142" s="28">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D142" s="28">
+        <v>3.1150000000000002</v>
+      </c>
+      <c r="E142" s="22">
+        <v>330.22</v>
       </c>
       <c r="F142" s="9"/>
       <c r="G142" s="10"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="21">
-        <v>32689</v>
-      </c>
-      <c r="B143" s="23">
-        <v>6.53</v>
-      </c>
-      <c r="C143" s="23">
-        <v>6.48</v>
-      </c>
-      <c r="D143" s="23">
-        <v>2.8609999999999998</v>
-      </c>
-      <c r="E143" s="24">
-        <v>317.98</v>
+        <v>33146</v>
+      </c>
+      <c r="B143" s="28">
+        <v>5.97</v>
+      </c>
+      <c r="C143" s="28">
+        <v>5.33</v>
+      </c>
+      <c r="D143" s="28">
+        <v>2.9980000000000002</v>
+      </c>
+      <c r="E143" s="22">
+        <v>306.05</v>
       </c>
       <c r="F143" s="9"/>
       <c r="G143" s="10"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="21">
-        <v>32598</v>
-      </c>
-      <c r="B144" s="23">
-        <v>6.41</v>
-      </c>
-      <c r="C144" s="23">
-        <v>6.74</v>
-      </c>
-      <c r="D144" s="23">
-        <v>2.5039999999999996</v>
-      </c>
-      <c r="E144" s="24">
-        <v>294.87</v>
+        <v>33054</v>
+      </c>
+      <c r="B144" s="28">
+        <v>6.06</v>
+      </c>
+      <c r="C144" s="28">
+        <v>6.07</v>
+      </c>
+      <c r="D144" s="28">
+        <v>3.206</v>
+      </c>
+      <c r="E144" s="22">
+        <v>358.02</v>
       </c>
       <c r="F144" s="9"/>
       <c r="G144" s="10"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="21">
-        <v>32508</v>
-      </c>
-      <c r="B145" s="23">
-        <v>6.37</v>
-      </c>
-      <c r="C145" s="23">
-        <v>5.62</v>
-      </c>
-      <c r="D145" s="23">
-        <v>2.5419999999999998</v>
-      </c>
-      <c r="E145" s="24">
-        <v>277.72000000000003</v>
+        <v>32963</v>
+      </c>
+      <c r="B145" s="28">
+        <v>5.61</v>
+      </c>
+      <c r="C145" s="28">
+        <v>5.54</v>
+      </c>
+      <c r="D145" s="28">
+        <v>2.7669999999999999</v>
+      </c>
+      <c r="E145" s="22">
+        <v>339.94</v>
       </c>
       <c r="F145" s="9"/>
       <c r="G145" s="10"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="21">
-        <v>32416</v>
-      </c>
-      <c r="B146" s="23">
-        <v>6.22</v>
-      </c>
-      <c r="C146" s="23">
-        <v>6.38</v>
-      </c>
-      <c r="D146" s="23">
-        <v>2.4609999999999999</v>
-      </c>
-      <c r="E146" s="24">
-        <v>271.91000000000003</v>
+        <v>32873</v>
+      </c>
+      <c r="B146" s="28">
+        <v>5.84</v>
+      </c>
+      <c r="C146" s="28">
+        <v>4.8</v>
+      </c>
+      <c r="D146" s="28">
+        <v>2.863</v>
+      </c>
+      <c r="E146" s="22">
+        <v>353.4</v>
       </c>
       <c r="F146" s="9"/>
       <c r="G146" s="10"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="21">
-        <v>32324</v>
-      </c>
-      <c r="B147" s="23">
-        <v>6.05</v>
-      </c>
-      <c r="C147" s="23">
-        <v>6.22</v>
-      </c>
-      <c r="D147" s="23">
-        <v>2.504</v>
-      </c>
-      <c r="E147" s="24">
-        <v>273.5</v>
+        <v>32781</v>
+      </c>
+      <c r="B147" s="28">
+        <v>5.54</v>
+      </c>
+      <c r="C147" s="28">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="D147" s="28">
+        <v>2.827</v>
+      </c>
+      <c r="E147" s="22">
+        <v>349.15</v>
       </c>
       <c r="F147" s="9"/>
       <c r="G147" s="10"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="21">
-        <v>32233</v>
-      </c>
-      <c r="B148" s="23">
-        <v>5.48</v>
-      </c>
-      <c r="C148" s="23">
-        <v>5.53</v>
-      </c>
-      <c r="D148" s="23">
-        <v>2.2430000000000003</v>
-      </c>
-      <c r="E148" s="24">
-        <v>258.89</v>
+        <v>32689</v>
+      </c>
+      <c r="B148" s="28">
+        <v>6.53</v>
+      </c>
+      <c r="C148" s="28">
+        <v>6.48</v>
+      </c>
+      <c r="D148" s="28">
+        <v>2.8609999999999998</v>
+      </c>
+      <c r="E148" s="22">
+        <v>317.98</v>
       </c>
       <c r="F148" s="9"/>
       <c r="G148" s="10"/>
     </row>
-    <row r="151" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="30"/>
-      <c r="B151" s="31"/>
-      <c r="C151" s="31"/>
-      <c r="D151" s="31"/>
-      <c r="E151" s="32"/>
-      <c r="F151" s="17"/>
-      <c r="G151" s="4"/>
-    </row>
-    <row r="152" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="21"/>
-      <c r="B152" s="33"/>
-      <c r="C152" s="33"/>
-      <c r="D152" s="34"/>
-      <c r="E152" s="33"/>
-      <c r="F152" s="3"/>
-      <c r="G152" s="5"/>
-      <c r="H152" s="5"/>
-      <c r="I152" s="5"/>
-    </row>
-    <row r="153" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E153" s="31"/>
-      <c r="G153"/>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E154" s="31"/>
-      <c r="G154"/>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E155" s="31"/>
-      <c r="G155"/>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E156" s="31"/>
-      <c r="G156"/>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E157" s="31"/>
-      <c r="G157"/>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E158" s="31"/>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149" s="21">
+        <v>32598</v>
+      </c>
+      <c r="B149" s="28">
+        <v>6.41</v>
+      </c>
+      <c r="C149" s="28">
+        <v>6.74</v>
+      </c>
+      <c r="D149" s="28">
+        <v>2.5039999999999996</v>
+      </c>
+      <c r="E149" s="22">
+        <v>294.87</v>
+      </c>
+      <c r="F149" s="9"/>
+      <c r="G149" s="10"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A150" s="21">
+        <v>32508</v>
+      </c>
+      <c r="B150" s="28">
+        <v>6.37</v>
+      </c>
+      <c r="C150" s="28">
+        <v>5.62</v>
+      </c>
+      <c r="D150" s="28">
+        <v>2.5419999999999998</v>
+      </c>
+      <c r="E150" s="22">
+        <v>277.72000000000003</v>
+      </c>
+      <c r="F150" s="9"/>
+      <c r="G150" s="10"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A151" s="21">
+        <v>32416</v>
+      </c>
+      <c r="B151" s="28">
+        <v>6.22</v>
+      </c>
+      <c r="C151" s="28">
+        <v>6.38</v>
+      </c>
+      <c r="D151" s="28">
+        <v>2.4609999999999999</v>
+      </c>
+      <c r="E151" s="22">
+        <v>271.91000000000003</v>
+      </c>
+      <c r="F151" s="9"/>
+      <c r="G151" s="10"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152" s="21">
+        <v>32324</v>
+      </c>
+      <c r="B152" s="28">
+        <v>6.05</v>
+      </c>
+      <c r="C152" s="28">
+        <v>6.22</v>
+      </c>
+      <c r="D152" s="28">
+        <v>2.504</v>
+      </c>
+      <c r="E152" s="22">
+        <v>273.5</v>
+      </c>
+      <c r="F152" s="9"/>
+      <c r="G152" s="10"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A153" s="21">
+        <v>32233</v>
+      </c>
+      <c r="B153" s="28">
+        <v>5.48</v>
+      </c>
+      <c r="C153" s="28">
+        <v>5.53</v>
+      </c>
+      <c r="D153" s="28">
+        <v>2.2430000000000003</v>
+      </c>
+      <c r="E153" s="22">
+        <v>258.89</v>
+      </c>
+      <c r="F153" s="9"/>
+      <c r="G153" s="10"/>
+    </row>
+    <row r="156" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="25"/>
+      <c r="B156" s="30"/>
+      <c r="C156" s="30"/>
+      <c r="D156" s="30"/>
+      <c r="E156" s="27"/>
+      <c r="F156" s="17"/>
+      <c r="G156" s="4"/>
+    </row>
+    <row r="157" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="21"/>
+      <c r="B157" s="28"/>
+      <c r="C157" s="28"/>
+      <c r="D157" s="28"/>
+      <c r="E157" s="28"/>
+      <c r="F157" s="3"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="5"/>
+      <c r="I157" s="5"/>
+    </row>
+    <row r="158" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E158" s="26"/>
       <c r="G158"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E159" s="31"/>
+      <c r="E159" s="26"/>
       <c r="G159"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E160" s="31"/>
+      <c r="E160" s="26"/>
       <c r="G160"/>
     </row>
     <row r="161" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E161" s="31"/>
+      <c r="E161" s="26"/>
       <c r="G161"/>
     </row>
     <row r="162" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E162" s="31"/>
+      <c r="E162" s="26"/>
       <c r="G162"/>
     </row>
     <row r="163" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E163" s="31"/>
+      <c r="E163" s="26"/>
       <c r="G163"/>
     </row>
     <row r="164" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E164" s="31"/>
+      <c r="E164" s="26"/>
       <c r="G164"/>
     </row>
     <row r="165" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E165" s="31"/>
+      <c r="E165" s="26"/>
       <c r="G165"/>
     </row>
     <row r="166" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E166" s="31"/>
+      <c r="E166" s="26"/>
       <c r="G166"/>
     </row>
     <row r="167" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E167" s="31"/>
+      <c r="E167" s="26"/>
       <c r="G167"/>
     </row>
     <row r="168" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E168" s="31"/>
+      <c r="E168" s="26"/>
       <c r="G168"/>
     </row>
     <row r="169" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E169" s="31"/>
+      <c r="E169" s="26"/>
       <c r="G169"/>
     </row>
     <row r="170" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E170" s="31"/>
+      <c r="E170" s="26"/>
       <c r="G170"/>
     </row>
     <row r="171" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E171" s="31"/>
+      <c r="E171" s="26"/>
       <c r="G171"/>
+    </row>
+    <row r="172" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E172" s="26"/>
+      <c r="G172"/>
+    </row>
+    <row r="173" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E173" s="26"/>
+      <c r="G173"/>
+    </row>
+    <row r="174" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E174" s="26"/>
+      <c r="G174"/>
+    </row>
+    <row r="175" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E175" s="26"/>
+      <c r="G175"/>
+    </row>
+    <row r="176" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E176" s="26"/>
+      <c r="G176"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -5695,74 +5784,74 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="35"/>
+    <col min="1" max="1" width="31.5703125" style="29" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="35" t="s">
-        <v>12</v>
+      <c r="D8" s="29" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
